--- a/500all/speech_level/speeches_CHRG-114hhrg98887.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98887.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,33 +52,21 @@
     <t>400356</t>
   </si>
   <si>
-    <t>Loretta Sanchez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you. I will read a few of these comments, Mr. Chairman, only because Mr. Smith wanted to make sure that--I want to make sure that we provide some of his voice while he is gone.    Thank you, gentlemen, for being before us today, and I welcome you. And I hope that you can in fact shed light on what is a very complicated situation.    No longer is this just about whether we send in ground troops to counter ISIL [Islamic State of Iraq and the Levant] or not. We see ISIL's influence permeating into so many different countries, permeating through the Internet, in the dark spaces of the Internet that none of us really can understand. We see it in the violence that we have in Europe, in the Middle East. And, of course, we saw its influence in my home State, just 20 miles away from where I live, in San Bernardino.    So the influence of ISIL is spreading; I think we have to get our heads around that. And we also see other extremist groups that are beginning to align or coordinate with ISIL from North Africa, and this is a problem.    So, in general, I would say that the international community, the U.S., the Democrats, Republicans, we are trying to really grapple with how we define, how we handle, what is the best way in which we defeat this evolving situation of ISIL and aligned groups.    And although we have seen progress on ISIL--for example, Iraq's reclaiming of Ramadi--the situation appears to be growing even more complex, and I am worried that it may get even more difficult given the situation between Saudi Arabia and Iran, for example.    I am also concerned--I think we need a clearer strategy. And I don't know that that strategy is one we want to make public, Mr. Chairman, because I am always one of those people that says, if you are going to battle someone, you want the upper hand, but I think we, as the representatives of the people, need to understand what the strategy is. Because if we can understand how we go about this, then we can agree, as Democrats and Republicans, as Americans really, to put in the resources that are required to get the job done.    As I have stated before, defeating ISIL will require a broad commitment that will take many years to take the effect that we want. But we cannot allow ourselves to be pulled into the same types of mistakes that we saw in the Iraq war. ISIL is out to get us, and we need to understand that. It is not just about over there; it has now come here. So we have to figure out how to expose the dark and the hopeless nature of ISIL's vicious and morally bankrupt agenda, and we have to do everything to delegitimize ISIL's twisted and lurid appeal.    And it is beyond my comprehension--let me end with this, Mr. Chairman--beyond my comprehension how, in today's world, we can have such a massive humanitarian crisis occurring in Syria and where we could have 40,000 civilians in the city of Madaya starving to death as a result of ISIL and Assad and the confluence of what is happening there.    So I am interested in your views today, trying to find some answers, trying to find that nugget of what is a real strategy that we and our allies--because it will take more than just the U.S. to resolve this issue.    I yield back, and I look forward to your testimony, gentlemen.    The Chairman. The committee is pleased to welcome with us today Mr. Mike Morell, former Acting Director of the Central Intelligence Agency; Dr. Michael Vickers, former Under Secretary of Defense for Intelligence; and Mr. Robert Ford, former Ambassador to Syria.    Committee members have their complete background information. Those were only the last jobs of these guys.    Again, thank you all for being here. Without objection, your complete written statement will be made part of the record, and we would like to hear any oral comments that you would like to make at this time.    Mr. Morell.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Morell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Morell. Thank you.    Chairman Thornberry, Congresswoman Sanchez, members of the committee, good morning, and thank you for the invitation to be here today to talk about an extremely important national security challenge facing our Nation.    It is an honor to be here. Indeed, I am humbled that you have asked me here to hear my thoughts. And it is good to see so many old friends, both on the committee and here at the table with me.    I plan on keeping my opening remarks short. Over the years, I have come to understand that questions and answers are a much more effective way to get to understanding than hearing somebody read a long testimony.    Let me start with the bottom line: I believe ISIS poses a significant strategic and lethal threat to the United States of America. That is a very strong statement. Let me walk you through why I believe that.    The nature and the significance of the threat posed by ISIS flows from the fact that ISIS is at the same time a terrorist group, a quasi-state, and a revolutionary political movement. We have not faced the likes of it before.    As a terrorist group, ISIS poses a threat to the U.S. homeland. In mid-2015, so just 6 months ago, that threat was largely indirect--ISIS's ability to radicalize young American men and women to conduct lone-wolf attacks here. That indirect threat remains today.    There are thousands of ISIS sympathizers in the United States, more than Al Qaeda ever had. The FBI [Federal Bureau of Investigation] has over 900 open investigations into homegrown extremists, the vast majority radicalized by ISIS and a large number of which relate to individuals who may be plotting attacks here.    Such attacks have already occurred in the United States, including the attack in San Bernardino last month, which in terms of fatalities was the largest terrorist attack in the United States since 9/11. There are other ISIS supporters who have been arrested before they could act.    Today, in addition to that indirect threat, we face a direct threat from ISIS--an ISIS capability to plan and direct attacks in the homeland from the group's safe haven in Iraq and Syria, largely from Raqqah in Syria, just like the group did in Paris in November. The Paris attack, as you know, was the largest attack in Western Europe since the Madrid train bombings in 2004 and the first ISIS-directed attack in the West ever.    What is the difference between the direct threat and an indirect threat? Why does it matter? A lone-wolf attack, while horrific, is likely to produce fairly limited casualties on the order of the Boston Marathon bombing in 2013--3 killed--or the shootings at Fort Hood in 2009--12 killed.    A directed attack, however, carries the potential to be more complex and more sophisticated--multiple simultaneous attacks, for example--and, therefore, more deadly, again, just like Paris--130 killed--or London in 2005--56 killed--or even 9/11 itself.    The attack in Paris was the first manifestation of an effort that ISIS has made to put together an attack capability in Europe, an effort they began less than a year before the Paris attack. More attacks in Europe are likely. The head of the U.K.'s [United Kingdom's] domestic security agency has warned that ISIS is planning mass casualty attacks in Britain. ISIS has said that it wants to conduct similar attacks in the United States.    One of the things I learned in 33 years in the CIA [Central Intelligence Agency] is sometimes it is really important to listen to what your adversary tells you. Sometimes they tell you exactly what they are going to do. ISIS has told us they are going to attack us here.    Now that they have the attack capability in Europe, they are almost certainly working to do the same thing here. And unless they are degraded, they will succeed. I don't have any doubt about that.    Switching from terrorist group to quasi-state, as a quasi-state, ISIS poses a threat to regional stability. ISIS is a state in every respect of the word except one: It does not have foreign recognition or relations with other states. But in every other respect it is a state. It has an executive, it has an army, it has a police force, it has a set of laws, it has a judiciary, it provides social services, it takes care of its poor, and it raises taxes.    Why does it matter that ISIS is a quasi-state? Two reasons.    One is that, as a state, it can utilize all of the resources, human and otherwise, within the area that it controls in the pursuit of its objectives. The best example of this is the tens of millions of dollars a month in revenue that ISIS earns from taxing the people that are inside the caliphate. They actually earn more in taxes than they do in oil sales.    And, two, the second reason it is important that it is a state is that it is going to make it more difficult to dislodge them. They have become deeply rooted in the areas that they control. The ISIS threat to regional stability is a threat to the very territorial integrity of the current nation-states there, a threat to inflame the entire region, I think, in sectarian war.    All of this--all of this--in a part of the world that still provides almost a third of the world's oil supply; a region that is home to one of America's closest allies, Israel; and a region that is home to a set of close American allies, the Gulf Arab states, that are a bulwark against Iran's push for hegemony in the region.    Third, as a revolutionary political movement, ISIS is gaining affiliates--this was mentioned in the opening statements--ISIS is gaining affiliates among extremist groups around the world. These groups are signing up for what ISIS desires as its objective: a global caliphate where day-to-day life is governed by extreme religious views. In the mind of ISIS, its global caliphate would extend to the United States of America itself.    When they join ISIS, these affiliates evolve from focusing on local issues, local grievances, to focusing on establishing an extension of the caliphate themselves. They want their own little caliphates. And their targets evolve from local to international ones. This is the story of the bombing of the Russian airliner by an ISIS group in the Egyptian Sinai, only the third airliner brought down by a bomb in the last 25 years. It is remarkable.    ISIS has gained affiliates faster than Al Qaeda ever did. From nothing a year ago, there are now militant groups in nearly 20 countries that have sworn allegiance to ISIS. They have conducted attacks that have already killed Americans, and they carry the potential to, themselves, grab large amounts of territory.    Libya is a place where this could happen in the near term. ISIS controls territory in Libya. They are currently expanding that territory, and foreign fighters are beginning to go to Libya to fight with the ISIS group there. I would not be surprised if we woke up one morning and ISIS in Libya had grabbed a large part of Libyan territory, the same kind of blitzkrieg on a smaller scale that we saw in Iraq.    Degrading and ultimately defeating ISIS will both require removing the leadership from the battlefield and will require the shrinking and the eventual elimination of the safe haven, the elimination of the quasi-state, which is currently the size of Great Britain.    The safe haven, the state, is a key part of the ISIS narrative that it is winning. As long as they have it--right?--they have a narrative that they are winning. This narrative is absolutely critical to them. It is absolutely critical to radicalizing homegrown extremists here and absolutely critical to creating affiliates among other militant groups around the world.    The safe haven provides security for ISIS to plot and to train. There are two things that are necessary for a successful attack on the homeland: a desire to do so and the capability to do it. And the safe haven allows for the building of that capability.    And the safe haven provides a place for foreign fighters to gather. No safe haven, no place to gather. Nearly 30,000 individuals from over 100 countries have traveled to Syria and Iraq to fight. Some are homesteading there to help create the caliphate. Others will die on the battlefield. But still others will return home, carrying with them the potential to conduct attacks. This has already happened in Europe, as you know. This creates the potential for attacks that cause more casualties because the individuals who return home will have battlefield experience.    Removing the leadership is easier than eliminating the safe haven. The former requires good intelligence and the military assets to turn that intelligence into action. The latter requires complex military operations in both Iraq and Syria, and it requires a political solution in Damascus to the problem of Bashar al-Assad and a political solution in Iraq to the problem of the disenfranchisement of the Sunnis there.    Mr. Chairman, let me close with this. Early last month, during a debate in the British Commons over whether Parliament should authorize British air strikes against ISIS in Syria, the Labour Party's shadow minister for foreign affairs, Hilary Benn, gave a remarkable speech. Some of his colleagues called it one of the greatest speeches in the history of the British Commons.    Benn, breaking with his own party leader and supporting British air strikes in Syria, said, and I quote, ``We are here faced by fascists, not just their calculated brutality but their belief that they are superior to every single one of us in this chamber tonight and all of the people that we represent. They hold us in contempt. They hold our values in contempt. They hold our belief in tolerance and decency in contempt. They hold our very democracy in contempt.''    Benn went on, and I quote, ``What we know about fascists is that they need to be defeated. It is why this entire house stood up against Hitler and Mussolini. We must now confront this evil.''    Mr. Chairman, I associate myself with Hilary Benn's remarks. That is the picture as I see it as a former intelligence officer who spent years watching Al Qaeda and other terrorist groups. I look forward to your questions.    [The prepared statement of Mr. Morell can be found in the Appendix on page 51.]    The Chairman. Thank you.    Dr. Vickers.</t>
   </si>
   <si>
-    <t>Vickers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Vickers. Chairman Thornberry, Congresswoman Sanchez, distinguished members of the committee, good morning. It is a privilege and pleasure to be with the House Armed Services Committee to provide an outside view on U.S. strategy for Iraq, Syria, and the global jihadist threat.    My former colleague and dear friend, Michael Morell, has described the threats that ISIS, or ISIL, poses. The ISIS threat is nested in several other conflicts that are raging across the Middle East--civil war and sectarian conflict, the global jihad, and then proxy war between Saudi Arabia and its allies and Iran and its allies.    In my opening statement this morning, I would like to offer a few thoughts on how I believe U.S. strategy needs to be intensified and accelerated to deal with these challenges.    The aims of U.S. strategy in the Middle East should be threefold: one, to prevent a major attack on the U.S. homeland and defeat the global jihadist threat; two, to reassure our allies and partners and contain Iran; and, three, to restore a favorable balance of power and greater stability across the Middle East.    I will discuss, in turn, what I believe are the needed adjustments to our strategy in Syria and Iraq against the global jihadists and against Iran, beginning with Syria.    Syria is the center of gravity for Middle Eastern conflict. It is where the battle for the future of the Middle East is largely being waged. A coalition victory in Syria would roll back Iranian power and deal a significant blow to the global jihadist movement.    I believe we need to adjust our strategy in Syria in two principal ways.    First, U.S. strategy has treated Syria as a secondary theater of war in the Iraq-Syria war. In my judgment, we need to shift to a Syria-first strategy and reinvigorate our efforts to remove Assad from power.    Second, we need to significantly intensify our operations. Strike sorties and the weight of strikes need to be significantly increased, as does coalition support, both quantitative and qualitative, for the moderate Syrian opposition. It is not too late to decisively support the opposition. We did not develop a war-winning strategy, for example, until the sixth year of our covert war against the Soviet occupation of Afghanistan in President Reagan's second term.    Let me now briefly turn to Iraq and make four points.    First, as the retaking of Ramadi shows, a more intense application of airpower and more aggressive use of U.S. combat advisers is also a good strategy in Iraq.    Second, the key to a Sunni tribal uprising against ISIL or ISIS is decisive U.S. engagement. The key to sustaining that uprising is the devolution of political power in Iraq across sectarian lines.    Third, we are in a competition with Iran for influence in Iraq. How sectarian identity, politics, and a post-war settlement will shape the future of Iraq and Syria remains to be determined, but our competition for influence with Iran is one we should seek to win.    And then, fourth, more broadly to both Iraq and Syria, raids by special operations forces will contribute an important line of effort to our strategy, but to be effective the tempo of operations needs to dramatically increase. For this to happen, the Iraqi Government must approve an increase in the number of U.S. special operations personnel on its territory.    Now turning to the global jihad, global jihad has metastasized, and time is not on our side, as Michael mentioned. Global jihadists cannot be contained. They must be defeated and continually disrupted while they are in the process of being defeated. Sanctuaries must be denied.    There are three points I would like to make.    First, disrupting and defeating the global jihadists in Syria and Iraq and beyond will require roughly the same ways--precision air strikes exploited by indigenous ground forces led by U.S. advisers--and sufficient means. The global jihadists will not be defeated until the ungoverned space in which they operate is eliminated, their ideology is discredited, and stability is returned to the Middle East. This will require a significant long-term investment in capacity-building of indigenous forces, irregular as well as regular, and sustained U.S. engagement.    Second, the Predator has been our most effective weapon in our campaign against the global jihadists, and the size of the Predator fleet will remain a critical limiting factor in the conduct of our campaigns.    Third, intelligence is our first line of defense, and, accordingly, investments in this area should have top priority.    I would like to conclude by saying a few words about U.S. strategy for Iran and the need to reassure our allies. Iran remains on the offensive in its quest for regional hegemony, and our Gulf Arab allies feel increasingly under siege as they confront a multi-front war with Sunni radicals and Iran and are increasingly estranged from us. Further estrangement would pose a serious challenge to our campaign against the global jihadists and will result in our allies becoming more vulnerable to Iranian and radical Islamic aggression. Reassuring our Gulf Arab allies, strengthening our fraying Arab-Turkish-Kurdish coalition, and containing Iranian expansion are thus critical to our broader efforts in the Middle East.    Thank you for the opportunity to appear before you today. I look forward to your questions.    [The prepared statement of Mr. Vickers can be found in the Appendix on page 59.]    The Chairman. Thank you.    Ambassador Ford.    Ambassador Ford. Mr. Chairman, thank you very much for the invitation to address you and the honorable members of the committee today. It gave me an excuse to come down from the cold winter up in northern New England.    I would like to in my remarks speak, above all, about the politics that is underway in Iraq and in Syria. I am going to avoid the strict military discussion because, to me, the Islamic State is more than the sum of its fighters. It is actually, as Mike Morell was saying, it is a quasi-state. But it builds support, it recruits, it replaces fighters who are killed, it even trains little children.    And so, confronting something like that, we need to think about what is a sustainable solution over the long term. And I am going to therefore talk about resources, and I am going to talk about the politics of national reconciliation.    First, Iraq. I visited Iraq a couple of months ago. It was my first time there on the ground in 5 years. I worked in Iraq for 5 years with the American Embassy and before that with the Coalition Provisional Authority.    My sense is that in Iraq on the military side there is progress, but there are two big challenges.    First, on the resource side, both the Iraqi Government in Baghdad and the Kurdish regional government in Irbil, both are heavily dependent on oil and oil sales. And low oil prices are really crunching their ability to mobilize resources in the fight against the Islamic State.    It was very noticeable to me that the Kurdish leadership, whom I have known since 2004, was genuinely concerned about their budget abilities to sustain the fight against Islamic State. Some of their Peshmerga fighters had not been paid for 3 months. But even in Baghdad, the authorities were concerned about the resources.    Second issue on Iraq: the politics of national reconciliation. Mike Vickers just mentioned the importance of devolution and decentralization. I certainly agree with that, and I am hopeful on that, because the Sunni Arab leaders, again, whom I have known since 2004, have really come around 180 degrees. They used to be in favor of a tight, strong central government, and now they are arguing for devolution of power.    That is what the Shia and the Kurds always wanted 10 years ago. For the first time, I have actually seen the Sunnis, the Shia, and the Kurds in Iraq all talking about, sort of, the same system of government. That is new, and that is hopeful.    But, at the same time, as events in Diyala, northeast of Baghdad, yesterday showed, there is serious sectarian tension. The Islamic State yesterday exploded several car bombs in the weary city of Baqubah, and there was immediately concern among the local Sunni Arab population that Shia irregular, Shia militia, would retaliate. There was actually a fear that they would attack Sunni Arab mosques.    In order to mobilize Sunni Arabs to contain the Islamic State, there must be efforts at national reconciliation. And this is important because we don't want the Islamic State to be put down militarily and then revive, as happened between 2011 and 2013. I really don't want to see an Islamic State version 2.0.    It is important for the Americans, therefore, to maintain pressure on the Shia militia problem in Iraq. There are Iraqis, such as Prime Minister Abadi, Ayatollah Sistani, a superb religious leader in the Shia community, people like, on the Sunni side, Speaker Jabouri, who are all working for national reconciliation.    And so, in Iraq, we need to help mobilize resources for both the central authorities in Iraq, Baghdad, for the Kurdish regional government in Irbil, and we have to be engaged on the national reconciliation, working with the gentlemen I pointed out.    On the Syrian side, Mr. Chairman, I am much less upbeat, much less optimistic. There has been some progress on the ground in northeastern Syria, but that has been led by Syrian Kurds, who have a separate political agenda. And their political agenda is, first, autonomy, and second, fight the Islamic State. Make sure we all understand that: first, autonomy; second, fight the Islamic State.    Because their first priority is autonomy, in that heterogeneous area of northern Syria, these Syrian Kurds have already stirred substantial resentment among local Arabs. I would note that Human Rights Watch and Amnesty International have both issued reports accusing the Syrian Kurdish militia, the ones we are helping--they have accused them of ethnic cleansing and war crimes against the local Arab communities. That does not help national reconciliation. That does not help build local Sunni indigenous forces to contain the Islamic State. We don't need to help the Islamic State recruit.    As Michael Vickers just noted, the only way really to generate more indigenous forces is to help the Syrian opposition and to see the removal of Bashar al-Assad at some point and the creation of a new national unity government. The sooner that can be done in Syria, the better. Only a new national unity government in Syria is going to be able to mobilize enough Syrians to fight and destroy the Islamic State.    In both countries, in both Iraq and Syria, as territory is cleared of the Islamic State, local authorities who are trying to keep the electricity going, trying to keep hospitals operating, trying to keep the water going, are going to need help. The Islamic State operated these things. As Mike Morell just said, it acts as a state. When it is gone, services must be contained.    That will be a job for the U.S. State Department, its people in Turkey and in Jordan, and for the U.S. Agency for International Development. They will need resources to do that, and they are going to have to be able to move around despite the security risks.    Finally, if I may, one last word about North Africa. I served in Algeria as Ambassador, and I was also in Algeria in the mid-nineties during a horrible civil war there, where the Algerian Government had to confront a very nasty sort of pre-Al Qaeda insurgency.    I am watching what is happening in Libya with concern. Even if the Islamic State, which is capturing oil facilities, even if it can't sell oil the way the Islamic State affiliates in Iraq and Syria have done, they may be able to use the oil assets they have locally to generate revenues. They are an administration. They have an increasing ability to project military power out of their base at Sirte, and they have a safe haven space to organize, plan, and recruit. Just as the attack in Paris was organized in Syria, so they have space in Libya to do the same kind of thing.    It will be important, therefore, Mr. Chairman, to help a new Libyan Government and to help it control territory. And we will need to be ready to do that.    Thank you very much again for the invitation to address the committee, and I look forward to your questions.    [The prepared statement of Mr. Ford can be found in the Appendix on page 67.]    The Chairman. Thank you all. Much to think about and much to follow up on.    All committee members received notice that Mr. Smith and I agreed for the purpose of this hearing that, after the chairman and ranking member's questions, that members would be recognized in reverse order of seniority if you were here at the time of the gavel. Then we will proceed according to when you entered the room, as we normally do.    To get that started, I am going to yield my 5 minutes to the gentleman from New Jersey, Mr. MacArthur.</t>
   </si>
   <si>
     <t>412643</t>
   </si>
   <si>
-    <t>Thomas MacArthur</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chairman.    And I thank all three of you for being here. It was very helpful, listening to you.    Mr. Morell, you painted a bleak and, I think, compelling picture of why ISIS poses a real threat, a strategic threat and a lethal threat, to the United States.    And if I heard you correctly, you mentioned three things: One, they are capable of completing indirect and direct attacks against us and our interests, and if we don't stop them, they will succeed. Two, they are really a state in every sense that matters. And I would add on that that I think it might serve us better if we recognize that. We call them a quasi-state, but they really are a repressive or an illegitimate state but they are a state, and they act as one. And then, thirdly, you said they have a growing network that will spread their influence.    It seems that the bottom of all of that is their control of land and people and resources. And so I wanted to ask you if you believe that we are doing everything necessary to get them out of that territory. And if not, briefly, what would you suggest that we add to what we are doing?</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you, gentlemen, for your service and your testimony today.    In my time in the military, one of the things that was most concerning as far as threat was the combination of a terrorist organization with weapons of mass destruction [WMD].    I serve on Homeland Security. I am the chairwoman of the Subcommittee on Emergency Preparedness, Response, and Communication. We have done some hearings on the threat of chemical and biological terrorism. And if you look at what ISIS has said, you know, they have stated in open source that they want to use these types of weapons and export their terror on us. Obviously, that could potentially be a game changer, not just small-scale physical attacks, but then actually using chemical, biological, radiological, or nuclear capabilities.    And what we have seen with ISIS, as you know, is that they are not just trying to acquire them--and there are reports they have used them on the battlefield--but they try and recruit individuals with the expertise so that they can create those capabilities themselves, not from scratch but just by importing those with the experience.    So I was wondering if you could comment, Mr. Morell, on the WMD threat with ISIS and your concerns about that and what to do about that.</t>
   </si>
   <si>
@@ -133,16 +118,13 @@
     <t>412632</t>
   </si>
   <si>
-    <t>Seth Moulton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    Gentlemen, thank you very much for your long years of service. I regret that you still have so many opportunities for your service continuing now.    I feel somewhat the same way. I had a much shorter period of service in the Marines, but when I was a part of the surge in Iraq, I very much felt like I was a part of finishing the job. We had messed it up for years, we got it right, and then I went home. And now I am back here watching us have to return to Iraq just 5 years after we left.    And so, while we can debate--and there is much to discuss--about the military strategy to defeat ISIS in the short term, the focus of my questions today is about how we ensure we don't find ourselves continually going back and having to apply military power against ISIS or the next ISIS successor in the long term.    And we have heard many people testify before this committee about the importance of a long-term political strategy. General Petraeus joined us last week and emphasized that. General Dunford, as Representative McSally pointed out, talked about the importance of State Department coordination and how it hasn't been happening for a long time.    So, to begin, I just wanted to see if we are on the same page with a few high-level points.    Is there any one of you who disagrees with, from the Iraq perspective, the need to empower the central Iraqi Government, that that is the best strategy we have on the table right now for a long-term political solution in Iraq?    Ambassador Ford. I think the Iraq Central Government Prime Minister Abadi is someone who believes in national reconciliation, and I think he has a political vision. But I worry when you say ``empower,'' Congressman, because I think so much of the sustainable solution--you were in Anbar--so much of the sustainable solution will not come just from Baghdad but will come from local Sunni communities who feel that they have a stake----</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Moulton. Fair enough.</t>
   </si>
   <si>
-    <t>Ford</t>
+    <t>412642</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ford [continuing]. In Iraq.</t>
@@ -187,9 +169,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman.    And thank you, gentlemen, for your thoughtful testimony.    Earlier on in this Congress, last March, we had a hearing with Ms. Wormuth, the Under Secretary of Defense for Policy, and I asked her a question related to what is the administration's policy toward Syria. And it was quite clear in her testimony that there was no coherent strategy toward Syria, and I think that is clearly still the case today.    I agree with your assessment that we must have a Syria-first approach to much of the regional instability in the Middle East, but one significant player that has not been brought up today is the role of Russia.    I would love to get your feedback on the fact that the vacuum that the United States has left has allowed Russia to fill that vacuum, propping up the Assad regime, and how that will play into the geopolitics of phasing Assad out.</t>
   </si>
   <si>
@@ -214,9 +193,6 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Chairman.    And, again, I thank you gentlemen for being here.    I would like to build a little bit on where Mr. Moulton was going on this broader strategy. And I think the timeline of this--I had the opportunity to be in Damascus in 2009, and I know Ambassador Ford early on challenged the Assad regime, at great personal risk.    And I thank you for that. You were articulating this clearly.    In 2013, when President Obama made the now-infamous ``red line'' statement, I held periodic town halls or whatever, and on that one hundreds of people showed up. And I had never seen anything like this, the involvement of getting into Syria to take Assad out because what he was doing with chemical weapons was unacceptable. And in that group of people that showed up, all 100 percent of them were opposed to any intervention.    Trust me, I have held them on health care--it does not quite work that way--and other things. It was an amazing thing, that the American public at that point, weary of war, weary of this, not committed to the strategy, didn't know what to say.    And I bring this up because I think where Mr. Moulton was getting at--and, Mr. Morell, you answered it--you are talking decades, and I think you are absolutely right. I think your assessment is correct, and I agree with that. What I think we need to understand here is that there are multiple administrations. Some you will like, some you will dislike.    And our commitment of that overarching strategy of smart power, what are the things we can put in place that can start to ensure that that transition is more coherent and more stable? Because I worry about that, because if you wait around here long enough, you will blame somebody else for where this happened.    My concern is that we get the strategy in place, and if it is 25 years, that needs to be clearly articulated to the American public with a strategy that they can get behind. Because if hundreds of people show up in a small grocery store in Minnesota and all say no, it is very difficult to make this work.    So I would be interested to hear your thoughts on implementation of smart power and broader thinking, how do the Chinese factor into this, some of the things that we should be thinking about. Whoever wants to take that one.</t>
   </si>
   <si>
@@ -238,9 +214,6 @@
     <t>412640</t>
   </si>
   <si>
-    <t>Ryan K. Zinke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zinke. Thank you, Mr. Chairman.    I do agree with your assessment of ISIS, but I also don't think Al Qaeda is out of the game. And my fear is, being number two, Al Qaeda will strike in a larger way because they are in a battle for influence.    But I would like to turn the attention to Iran. Since Congress failed to stop the President's Iranian deal, we have watched Iran launch two ICBMs [intercontinental ballistic missiles], we have watched them deploy missile strikes in Camp Liberty, we have watched them embolden and, to a degree, influence the Shia militia.    To your point about reconciliation between the Sunnis and the Shia, as Iranian influence begins to be emboldened, I don't see how a Sunni reconciliation can occur without checking Iran.    And there are reports, and I believe they are valid, as the Shia militia went through its anti-Sunni rallying cries and battle cries. And my fear in Ramadi--although I think that we were wise to put the Iraqi military in charge of that operation rather than the Shia militia--as that territory is gained, if the result is simply the Shia militia and a greater Iranian influence in the Anbar Province, I think that is perilous.    How concerned are you about Iranian influence in Iraq and Syria?</t>
   </si>
   <si>
@@ -262,9 +235,6 @@
     <t xml:space="preserve">    Mr. Zinke. Thank you.    Thank you. I yield back.    The Chairman. Mr. Castro.</t>
   </si>
   <si>
-    <t>Castro</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, Chairman.    And thank you, gentlemen, for your testimony.    As you know, there was a suicide bomber who attacked Istanbul at about 10:15 a.m. Tuesday morning in Turkey. And because of that, I want to ask a few questions related to Turkey.    And the first one is really a preface question. How effective do you believe or have you seen that Turkey has been to stem the unwanted flow of fighters and goods into and out of their country?    Ambassador Ford. Congressman, it was more or less an open border in 2012 and 2013. The Turks have taken a lot of measures to tighten that border. It is very different from what it was 3 years ago, 4 years ago.    That said, that border is still not completely shut. There are lots of little goat paths and donkey trails that date back hundreds of years. Smugglers know them, and the Turks can know them. But it is a manpower-intensive operation, and the Turks need to assign enough manpower to do it.</t>
   </si>
   <si>
@@ -286,9 +256,6 @@
     <t>412601</t>
   </si>
   <si>
-    <t>Bradley Byrne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you, Mr. Chairman.    And thank you, gentlemen, for your patience and your very good insight.    If I had done--and I did do--town hall meetings 2 years ago, the people in my district would have been, at best, ambivalent and probably pretty negative about any idea of further intervention in Syria. But a lot has happened over the last 2 years, and I can tell you from my town hall meetings, that is not what I am hearing anymore. People are worried, because if you watch the course of events, these events have come closer and closer to home. San Bernardino, a lone-wolf attack but nonetheless inspired, if not indirectly directed, by the people of ISIS, have got my constituents' attention.    But I am from Alabama. We believe in winning. We know you can't win unless you have the right coach--Roll Tide--you can't win unless you have the right coach. I am not asking you to comment on the coach. And that coach has got to have a plan. And the plan has to be a plan to win. And you have to train the team to win on that plan.    Now, my constituents come to my town hall meetings and say, where is the plan, the winning plan? This President has not articulated a plan at all, whether it is a winning one or not.    So we are going to be changing coaches, changing Presidents in a year. And, once again, my question is not directed at who that should be. But if you were advising that next President of the United States on what the winning plan is, how we win this war, what would the elements of that plan be?</t>
   </si>
   <si>
@@ -310,9 +277,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I want to thank our witnesses for your service to the country and also for your appearance today, in particular, Mr. Morell and Dr. Vickers. In my 8 years on the Intelligence Committee and also my years here on the Armed Services Committee, I always appreciated your candid testimony before me in both those areas.    I think, clearly, obviously we have extraordinary challenges in our efforts to defeat ISIL, both on the military front and on the political front. And you all have outlined some concrete steps on both, particularly on the military front. The bigger challenge that we see is going to be defeating ISIL on the political front, especially given the fact that there are countless examples throughout the Koran that ISIL uses to justify their actions.    What are the most effective ways for us to delegitimize ISIL, in particular, you know, given the headwinds we are up against when ISIL or Al Qaeda are using the Koran to justify what they are doing?    Now, the Emerging Threats and Capabilities Subcommittee has recently held several hearings and briefings on countering extremist messaging, also authorizing a counter-messaging demo program last year. And on Friday the White House announced a new task force for this very purpose.    So as we work to bolster information operations in our fight to delegitimize ISIL's ideological messaging, what capabilities do we need, and what tactics and techniques and procedures should the military and the new task force employ?</t>
   </si>
   <si>
@@ -334,9 +298,6 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman.    I thank you all for being here today.    You know, as I look at what we are facing and what you have talked about so well today, you know, I believe that the United States needs to lead on this, but we can't lead and do things alone, that we need to develop our coalitions wholeheartedly with our European allies and with our allies in the Middle East. You know, you see what happened in Paris, and then France wants to become more involved. And I think that we need to establish that.    And my concern is that we are not doing enough; we are not doing enough to establish these diplomatic ties with our allies. Possibly, we need to share more information, coordinate better, and certainly could possibly do more as far as trying to disrupt them economically. And then, of course, there is the component of what we are going to do militarily.    And, Ambassador, I appreciate what you just shared with us because that has been one of my concerns all along, is what we are doing. I have seen some of their videos and how they try to recruit, and I am like, are we doing anything to counteract that, to get people that go online, to pay attention to these things, to get another point of view? And I would hope that we would do something more like that to counter how effective they have been in that regard.    But I would like to just to ask each of you, what more do you think we should be doing, militarily and non-military, and maybe even more non-military, as I discussed, as far as diplomacy and trying to hurt them economically?    You know, you mentioned before how much they collect in taxes. I mean, that is pretty incredible. And I don't know that many people realize that. That was kind of a new revelation to me. You know, I thought most of the revenue was coming from oil.    So what are some of the things that we can do, both militarily and non-militarily? And how should we develop our coalitions? Because, to me, this is a global good-versus-evil event that is taking place in this time.    I will start with you, Mr. Morell.</t>
   </si>
   <si>
@@ -367,9 +328,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    And thank you all for bringing your expertise to us today. We appreciate your distinguished service.    I wanted to sort of respond to some of the conversation that we have had. And I think that we all acknowledge and understand one of the first things that we need here, I think, on the committee but also in the country is patience. It is very difficult to push when we know that the timeline is out. I remember one of the Iraqi generals saying something to the effect of, well, we think we might be operational by 2020. And everybody looked at him like, you know, come back another day. And so that is important for us to acknowledge.    And the other thing that you have all mentioned, and I think particularly Ambassador Ford, is reassuring our allies.    So I wanted to ask you, Ambassador Ford, because you highlighted, in talking to Syria, issues of conditionality, particularly as we are working with those who are fighting with the opposition, where is it that we have fallen short in seeking more conditionality moving forward? How could that be done differently?    And, certainly, this is a whole-of-government approach to a large extent, and you have been talking about sustaining the efforts in terms of the State Department. And, at the same time, we know that, whether it is funding or whatever that may be, we often don't engage at the level that we should. Where should those efforts be, specifically, in terms of Syria?    Ambassador Ford. I think, Congresswoman, on two levels.    On a national geostrategic level with countries of the region--Turkey, Saudi Arabia, who are big players in Syria, and Iran. And I assume the Secretary of State is now having some frank conversations with the Iranian Foreign Minister. Of course, the Iranian Foreign Minister doesn't control Iranian policy in Syria. There is another man in the Iranian Government named Qasem Soleimani from the Revolutionary Guard Corps who controls it. So it is awkward, but there needs to be sustained engagement there.    And I think when you talk about conditionality, to me, one of the basic elements is we tell the Turks and the Saudis that we are not interested in helping extremists in the Syrian opposition who will reject a political solution and insist only on military victory. Any assistance we give to any Syrian opposition group should be conditioned on their acceptance of an eventual political deal, not military victory.    Second level for conditionality engagement has to be at a more local level. I mentioned that there are areas that are being liberated, whether it is from the Islamic State or sometimes from the Assad regime. You would need to keep the services going.    And State Department has tried to do this. I have to be honest; my colleagues who are still in government tell me it is becoming more difficult because of security. And I certainly hope, and I know Chris Stevens would hope, that what happened in Benghazi does not prevent colleagues from doing their jobs, going forward and engaging with people locally, in the case of Syria or Iraq, to help national reconciliation and the restoration of capable local governance.</t>
   </si>
   <si>
@@ -391,9 +349,6 @@
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    Gentlemen, thank you for being here.    And I know we have talked a lot about Syria and other parts of the world outside the U.S. I want to get back to the U.S. for a couple of minutes.    Mr. Morell, you said that the FBI has over 800 open investigations in this country?</t>
   </si>
   <si>
@@ -490,9 +445,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you.    Good morning--good afternoon.    Mr. Morell, you spoke about President el-Sisi in Egypt and that great speech that he gave and the need for leaders within Islam to combat and counter this radical extremist ideology that is driving groups like ISIS and Al Qaeda. And you very eloquently drew that line between connecting groups like ISIS and Al Qaeda and how that ideology is exactly the same.    I had a chance to meet with President el-Sisi in Egypt in November. I spent close to 2 hours talking with him and heard from him how he is continuing to meet with imams and gatherings of religious Muslim leaders and continuing this effort but remains frustrated about the cold shoulder that he is getting from the United States and, really, the lack of action on our part about recognizing the need to, as you said, identify and understand your enemy and the ideology that is driving them.    So when we understand and know that ISIS has the same ideology of this radical political Islamism that Al Qaeda has, that al-Nusrah has, and many of these other groups that are fighting in Syria to overthrow Assad, to establish their caliphate, why is it, in your opinion, that the U.S. in Syria is only targeting ISIS and is not, to my knowledge, targeting any of these other variety of Islamic extremist groups who adhere to and who are fighting under and motivated by this exact same radical Islamic ideology?</t>
   </si>
   <si>
@@ -529,9 +481,6 @@
     <t>412275</t>
   </si>
   <si>
-    <t>John Fleming</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you.    Gentlemen, I have listened to your testimony, and it is all very interesting and informative.    Let me ask you this: Have all three of you worked within the Obama administration?</t>
   </si>
   <si>
@@ -565,9 +514,6 @@
     <t xml:space="preserve">    Dr. Fleming. Well, I am running out of time, but I would just end by saying that it seems absolutely necessary that we energize and stimulate the Muslim world to see this for what it is and that it is only going to make life difficult for everyone until they get involved and actually begin to counter these terrible philosophies that are really keeping us away from peace around the world.    And I thank you, gentlemen.    And I yield back.    The Chairman. Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Ambassador Ford, I would like you to comment on a relatively recent development, which is the U.N. Security Council outline for a peace process in Syria. And I would like you to do so within the context of everyone's agreed goal of ultimately seeing Assad replaced. We want to make sure that we minimize any threats to the United States and to our allies. We would like to see stability in that region. We want to minimize the loss of human life and suffering. And I think we all, the United States and the world community, would like to see justice served for some truly horrific crimes in that area.    Train and equip hasn't really worked to that end so far. It has been an abysmal failure. Mr. Morell, prior to saying at the end of the day we have to get rid of Assad, or Assad has to go, said we don't have a credible ground force in Syria.    So tell me, Ambassador Ford, your thoughts on the prospects for this process, how aggressively we should commit to it, if you agree that it is the path to take, and what we can do most effectively, militarily, diplomatically, economically, or otherwise, to get to our goals through a more peaceful process.    Ambassador Ford. Thank you, Congressman O'Rourke.    In brief, I don't think the process is going to go anywhere. And I didn't think that a month ago before this Saudi-Iranian latest spat erupted.    There is nothing in the documents that came out of Vienna, where Secretary Kerry was with other foreign ministers, nor is there anything in the Security Council resolution that says that Bashar al-Assad must go. It is just simply not addressed.    Second--by the way, I would just say that, to me, is something the Syrians ought to negotiate. It shouldn't be a precondition, but it ought to be on the table.    Second, right now, there is a lot of goofing around going on about who should represent the Syrian opposition. And the Russians are trying to put their friends on the opposition delegation; the Iranians are trying to put some of their friends; and, frankly, the Turks and the Saudis are trying to put some of their friends. Syrians are not in control of this.    That, to me, spells disaster, especially if the really serious armed opposition guys, who accept a political solution, if those serious armed opposition guys are excluded from the negotiation, I can't imagine they will sustain their support for a political deal.    There has been a lot of talk about getting a cease-fire. You know the pictures of the starving people in Madaya? Madaya had a cease-fire. You can see what a cease-fire looks like. So if you are in one of those areas where there is a cease-fire and then you begin to criticize the regime, you don't want to appear on TV in their propaganda, which is what happened in Madaya; then, suddenly, food gets cut.    So I think, in all of this, it is not to say we shouldn't pursue a political process with this U.N. Security Council resolution, but it only works if there is pressure on all the sides--and I do mean pressure--on all the sides to make a compromise.</t>
   </si>
   <si>
@@ -589,9 +535,6 @@
     <t>412271</t>
   </si>
   <si>
-    <t>Mike Coffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    I served in Iraq with the United States Marine Corps 2005-2006 in Al Anbar province as a civil affairs officer. And I recall the problems with that 20 percent population, the Sunnis, who were the ruling elite in the country and were no longer and, for a time, certainly didn't see any path to being equitably treated. Then you have, later on--I think we gave them that path, and then Maliki, I think, pushed them out again and created an opening for ISIS.    And so I think that, in looking at a post-ISIS Iraq, that there needs to be some kind of political accommodation for the Sunnis. And what I remember is the Kurds had gotten a provision within the constitution whereby they could form a semiautonomous region, and they have done so.    Wouldn't that make sense--if we look at the areas that have fallen to ISIS, they are all Sunni Arab areas--wouldn't that make sense, that there be some sort of a push in that direction to show the Sunni Arabs that there is a path, a political accommodation, where they could coexist with a Shia-dominated Baghdad government?    And I wonder if any of you could answer that question.    Ambassador Ford. This is exactly what I was talking to Sunni Arabs when I was in Iraq last October. And, you know, there was a time when they wouldn't have accepted it, but they have changed 180 degrees.</t>
   </si>
   <si>
@@ -622,9 +565,6 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Dr. Vickers, you have used the term ``global jihadist movement'' and thus identified the global jihadist movement as the focus of America's fight against terrorism.    Isn't it a fact that the global jihadist movement is very closely linked to the teachings of Wahhabism? Yes or no?</t>
   </si>
   <si>
@@ -703,9 +643,6 @@
     <t>412612</t>
   </si>
   <si>
-    <t>Ruben Gallego</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gallego. Thank you, Mr. Chair.    Like Rep. Coffman, I, too, am a graduate of the University of Al Anbar with the Marines and a graduate degree--I like to boot to that sometimes. From my experience there, just operating out in that area, mostly the, kind of, Haditha, Al Asad, Al Qayyim corridor, I operated a lot with ING [Iraq National Guard], and they were decent infantry soldiers.    Earlier this year, you know, Secretary Carter stated that, while air strikes are effective, we are going to need a good, reliable Iraqi ground force to be able to take back a lot of this territory from ISIL. In your estimation--it doesn't matter which one of you all three want to answer this--are we seeing an effective Iraqi force on the ground right now?    There are some conflicting reports I have read about Ramadi, how there was an overreliance on air strikes and, I think, the special forces of that counterterrorism. And what does this mean in the larger relations of us being able to push them out of Mosul and other parts of Al Anbar too?</t>
   </si>
   <si>
@@ -734,9 +671,6 @@
   </si>
   <si>
     <t>412579</t>
-  </si>
-  <si>
-    <t>Marc A. Veasey</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Veasey. Thank you, Mr. Chairman.    I wanted to ask you a question about ground coalitions or Arab allies coming together to help defeat ISIL, particularly in Syria.    You know, last week, we heard from General Petraeus, and he basically implied that the U.S. needs to take more of a support role and help them to defeat ISIL. And then Secretary James Baker, also a Texan, he has said the fact that the Arab allies needing to come together to create a coalition to build a ground force.    If you were going to build a ground force of--an Arab coalition ground force, particularly with Sunni soldiers that would go into Syria, to be able to go door to door and tell people in these towns and in these cities and communities that ISIL is basically an insult and gives Islam a bad name all around the world, what would that ground force look like, with the U.S. obviously only providing air support?</t>
@@ -1168,11 +1102,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1192,13 +1124,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1218,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1244,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1270,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1296,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1322,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1350,11 +1270,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1374,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1400,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1428,11 +1342,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1454,11 +1366,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1480,11 +1390,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1504,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1530,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1556,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1582,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1608,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1634,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1660,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1686,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1712,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1738,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>39</v>
-      </c>
-      <c r="H24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1764,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1790,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1816,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1842,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1868,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1894,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1920,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1946,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1972,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1998,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2024,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2050,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2076,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2102,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2128,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2154,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2180,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
         <v>57</v>
-      </c>
-      <c r="H41" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2206,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
-      </c>
-      <c r="G42" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2232,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2258,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2284,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2310,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2336,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2362,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2388,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2414,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2440,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2466,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2492,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2518,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2544,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2570,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2596,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2622,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2648,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2674,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>82</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2700,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>89</v>
-      </c>
-      <c r="G61" t="s">
-        <v>90</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2726,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2752,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>89</v>
-      </c>
-      <c r="G63" t="s">
-        <v>90</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2778,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2804,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>89</v>
-      </c>
-      <c r="G65" t="s">
-        <v>90</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2830,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s">
-        <v>90</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2856,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>97</v>
-      </c>
-      <c r="G67" t="s">
-        <v>98</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2882,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2908,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2934,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>97</v>
-      </c>
-      <c r="G70" t="s">
-        <v>98</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2960,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>97</v>
-      </c>
-      <c r="G71" t="s">
-        <v>98</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2986,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>97</v>
-      </c>
-      <c r="G72" t="s">
-        <v>98</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3012,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>105</v>
-      </c>
-      <c r="G73" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3038,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3064,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
-      </c>
-      <c r="G75" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3090,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3116,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>105</v>
-      </c>
-      <c r="G77" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3142,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3168,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>105</v>
-      </c>
-      <c r="G79" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3194,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
-      </c>
-      <c r="G80" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3220,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3246,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>116</v>
-      </c>
-      <c r="G82" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3272,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
-      </c>
-      <c r="G83" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3298,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3324,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>116</v>
-      </c>
-      <c r="G85" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3350,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3376,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
-      </c>
-      <c r="G87" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3402,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>124</v>
-      </c>
-      <c r="G88" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3428,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3454,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>124</v>
-      </c>
-      <c r="G90" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3480,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3506,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
-      </c>
-      <c r="G92" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3532,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3558,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>124</v>
-      </c>
-      <c r="G94" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3584,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3610,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>124</v>
-      </c>
-      <c r="G96" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3636,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3662,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3688,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
-      </c>
-      <c r="G99" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3714,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3740,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
+        <v>110</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>124</v>
-      </c>
-      <c r="G101" t="s">
-        <v>125</v>
-      </c>
-      <c r="H101" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3766,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3792,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3818,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>124</v>
-      </c>
-      <c r="G104" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3844,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3870,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>124</v>
-      </c>
-      <c r="G106" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3896,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3922,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>124</v>
-      </c>
-      <c r="G108" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3948,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3974,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4000,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4026,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>124</v>
-      </c>
-      <c r="G112" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4052,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>124</v>
-      </c>
-      <c r="G113" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4078,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>124</v>
-      </c>
-      <c r="G114" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4104,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>124</v>
-      </c>
-      <c r="G115" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4130,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>124</v>
-      </c>
-      <c r="G116" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4156,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4182,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>124</v>
-      </c>
-      <c r="G118" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4208,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4234,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>157</v>
-      </c>
-      <c r="G120" t="s">
-        <v>158</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4260,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4286,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>157</v>
-      </c>
-      <c r="G122" t="s">
-        <v>158</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4312,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4338,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>157</v>
-      </c>
-      <c r="G124" t="s">
-        <v>158</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4364,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4390,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>157</v>
-      </c>
-      <c r="G126" t="s">
-        <v>158</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4416,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4442,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>157</v>
-      </c>
-      <c r="G128" t="s">
-        <v>158</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4468,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4494,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>157</v>
-      </c>
-      <c r="G130" t="s">
-        <v>158</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4520,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>170</v>
-      </c>
-      <c r="G131" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4546,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4572,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>170</v>
-      </c>
-      <c r="G133" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4598,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4624,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>170</v>
-      </c>
-      <c r="G135" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4650,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4676,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>170</v>
-      </c>
-      <c r="G137" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4702,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4728,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>170</v>
-      </c>
-      <c r="G139" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4754,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>170</v>
-      </c>
-      <c r="G140" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4780,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>170</v>
-      </c>
-      <c r="G141" t="s">
-        <v>171</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4806,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>183</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4832,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>183</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4858,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>183</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4884,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>183</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4910,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>183</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4936,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>183</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4962,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>190</v>
-      </c>
-      <c r="G148" t="s">
-        <v>191</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4988,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>190</v>
-      </c>
-      <c r="G149" t="s">
-        <v>191</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5014,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>190</v>
-      </c>
-      <c r="G150" t="s">
-        <v>191</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5040,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>190</v>
-      </c>
-      <c r="G151" t="s">
-        <v>191</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5066,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5092,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>190</v>
-      </c>
-      <c r="G153" t="s">
-        <v>191</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5118,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5144,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>190</v>
-      </c>
-      <c r="G155" t="s">
-        <v>191</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5170,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>190</v>
-      </c>
-      <c r="G156" t="s">
-        <v>191</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5196,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>201</v>
-      </c>
-      <c r="G157" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5222,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5248,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>201</v>
-      </c>
-      <c r="G159" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5274,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5300,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>201</v>
-      </c>
-      <c r="G161" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5326,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5352,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>201</v>
-      </c>
-      <c r="G163" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5378,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5404,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>201</v>
-      </c>
-      <c r="G165" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5430,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5456,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>201</v>
-      </c>
-      <c r="G167" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5482,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5508,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>201</v>
-      </c>
-      <c r="G169" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5534,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>201</v>
-      </c>
-      <c r="G170" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5560,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>201</v>
-      </c>
-      <c r="G171" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5586,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>201</v>
-      </c>
-      <c r="G172" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5612,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>201</v>
-      </c>
-      <c r="G173" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5638,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>201</v>
-      </c>
-      <c r="G174" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5664,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>201</v>
-      </c>
-      <c r="G175" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5690,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
+        <v>182</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
         <v>201</v>
-      </c>
-      <c r="G176" t="s">
-        <v>202</v>
-      </c>
-      <c r="H176" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5716,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>201</v>
-      </c>
-      <c r="G177" t="s">
+        <v>182</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
         <v>202</v>
-      </c>
-      <c r="H177" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5742,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>201</v>
-      </c>
-      <c r="G178" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5768,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5794,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>201</v>
-      </c>
-      <c r="G180" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5820,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5846,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>201</v>
-      </c>
-      <c r="G182" t="s">
-        <v>202</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5872,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>228</v>
-      </c>
-      <c r="G183" t="s">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5898,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5924,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>228</v>
-      </c>
-      <c r="G185" t="s">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5950,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5976,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>228</v>
-      </c>
-      <c r="G187" t="s">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6002,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6028,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>228</v>
-      </c>
-      <c r="G189" t="s">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6054,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6080,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>228</v>
-      </c>
-      <c r="G191" t="s">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6106,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>239</v>
-      </c>
-      <c r="G192" t="s">
-        <v>240</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6132,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6158,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>239</v>
-      </c>
-      <c r="G194" t="s">
-        <v>240</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6184,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6210,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>239</v>
-      </c>
-      <c r="G196" t="s">
-        <v>240</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6236,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>14</v>
-      </c>
-      <c r="G197" t="s">
-        <v>183</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6262,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" t="s">
-        <v>183</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6288,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
-      </c>
-      <c r="G199" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6314,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>183</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6340,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
-      </c>
-      <c r="G201" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6366,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>183</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98887.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98887.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,21 +55,39 @@
     <t>400356</t>
   </si>
   <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you. I will read a few of these comments, Mr. Chairman, only because Mr. Smith wanted to make sure that--I want to make sure that we provide some of his voice while he is gone.    Thank you, gentlemen, for being before us today, and I welcome you. And I hope that you can in fact shed light on what is a very complicated situation.    No longer is this just about whether we send in ground troops to counter ISIL [Islamic State of Iraq and the Levant] or not. We see ISIL's influence permeating into so many different countries, permeating through the Internet, in the dark spaces of the Internet that none of us really can understand. We see it in the violence that we have in Europe, in the Middle East. And, of course, we saw its influence in my home State, just 20 miles away from where I live, in San Bernardino.    So the influence of ISIL is spreading; I think we have to get our heads around that. And we also see other extremist groups that are beginning to align or coordinate with ISIL from North Africa, and this is a problem.    So, in general, I would say that the international community, the U.S., the Democrats, Republicans, we are trying to really grapple with how we define, how we handle, what is the best way in which we defeat this evolving situation of ISIL and aligned groups.    And although we have seen progress on ISIL--for example, Iraq's reclaiming of Ramadi--the situation appears to be growing even more complex, and I am worried that it may get even more difficult given the situation between Saudi Arabia and Iran, for example.    I am also concerned--I think we need a clearer strategy. And I don't know that that strategy is one we want to make public, Mr. Chairman, because I am always one of those people that says, if you are going to battle someone, you want the upper hand, but I think we, as the representatives of the people, need to understand what the strategy is. Because if we can understand how we go about this, then we can agree, as Democrats and Republicans, as Americans really, to put in the resources that are required to get the job done.    As I have stated before, defeating ISIL will require a broad commitment that will take many years to take the effect that we want. But we cannot allow ourselves to be pulled into the same types of mistakes that we saw in the Iraq war. ISIL is out to get us, and we need to understand that. It is not just about over there; it has now come here. So we have to figure out how to expose the dark and the hopeless nature of ISIL's vicious and morally bankrupt agenda, and we have to do everything to delegitimize ISIL's twisted and lurid appeal.    And it is beyond my comprehension--let me end with this, Mr. Chairman--beyond my comprehension how, in today's world, we can have such a massive humanitarian crisis occurring in Syria and where we could have 40,000 civilians in the city of Madaya starving to death as a result of ISIL and Assad and the confluence of what is happening there.    So I am interested in your views today, trying to find some answers, trying to find that nugget of what is a real strategy that we and our allies--because it will take more than just the U.S. to resolve this issue.    I yield back, and I look forward to your testimony, gentlemen.    The Chairman. The committee is pleased to welcome with us today Mr. Mike Morell, former Acting Director of the Central Intelligence Agency; Dr. Michael Vickers, former Under Secretary of Defense for Intelligence; and Mr. Robert Ford, former Ambassador to Syria.    Committee members have their complete background information. Those were only the last jobs of these guys.    Again, thank you all for being here. Without objection, your complete written statement will be made part of the record, and we would like to hear any oral comments that you would like to make at this time.    Mr. Morell.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Morell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Morell. Thank you.    Chairman Thornberry, Congresswoman Sanchez, members of the committee, good morning, and thank you for the invitation to be here today to talk about an extremely important national security challenge facing our Nation.    It is an honor to be here. Indeed, I am humbled that you have asked me here to hear my thoughts. And it is good to see so many old friends, both on the committee and here at the table with me.    I plan on keeping my opening remarks short. Over the years, I have come to understand that questions and answers are a much more effective way to get to understanding than hearing somebody read a long testimony.    Let me start with the bottom line: I believe ISIS poses a significant strategic and lethal threat to the United States of America. That is a very strong statement. Let me walk you through why I believe that.    The nature and the significance of the threat posed by ISIS flows from the fact that ISIS is at the same time a terrorist group, a quasi-state, and a revolutionary political movement. We have not faced the likes of it before.    As a terrorist group, ISIS poses a threat to the U.S. homeland. In mid-2015, so just 6 months ago, that threat was largely indirect--ISIS's ability to radicalize young American men and women to conduct lone-wolf attacks here. That indirect threat remains today.    There are thousands of ISIS sympathizers in the United States, more than Al Qaeda ever had. The FBI [Federal Bureau of Investigation] has over 900 open investigations into homegrown extremists, the vast majority radicalized by ISIS and a large number of which relate to individuals who may be plotting attacks here.    Such attacks have already occurred in the United States, including the attack in San Bernardino last month, which in terms of fatalities was the largest terrorist attack in the United States since 9/11. There are other ISIS supporters who have been arrested before they could act.    Today, in addition to that indirect threat, we face a direct threat from ISIS--an ISIS capability to plan and direct attacks in the homeland from the group's safe haven in Iraq and Syria, largely from Raqqah in Syria, just like the group did in Paris in November. The Paris attack, as you know, was the largest attack in Western Europe since the Madrid train bombings in 2004 and the first ISIS-directed attack in the West ever.    What is the difference between the direct threat and an indirect threat? Why does it matter? A lone-wolf attack, while horrific, is likely to produce fairly limited casualties on the order of the Boston Marathon bombing in 2013--3 killed--or the shootings at Fort Hood in 2009--12 killed.    A directed attack, however, carries the potential to be more complex and more sophisticated--multiple simultaneous attacks, for example--and, therefore, more deadly, again, just like Paris--130 killed--or London in 2005--56 killed--or even 9/11 itself.    The attack in Paris was the first manifestation of an effort that ISIS has made to put together an attack capability in Europe, an effort they began less than a year before the Paris attack. More attacks in Europe are likely. The head of the U.K.'s [United Kingdom's] domestic security agency has warned that ISIS is planning mass casualty attacks in Britain. ISIS has said that it wants to conduct similar attacks in the United States.    One of the things I learned in 33 years in the CIA [Central Intelligence Agency] is sometimes it is really important to listen to what your adversary tells you. Sometimes they tell you exactly what they are going to do. ISIS has told us they are going to attack us here.    Now that they have the attack capability in Europe, they are almost certainly working to do the same thing here. And unless they are degraded, they will succeed. I don't have any doubt about that.    Switching from terrorist group to quasi-state, as a quasi-state, ISIS poses a threat to regional stability. ISIS is a state in every respect of the word except one: It does not have foreign recognition or relations with other states. But in every other respect it is a state. It has an executive, it has an army, it has a police force, it has a set of laws, it has a judiciary, it provides social services, it takes care of its poor, and it raises taxes.    Why does it matter that ISIS is a quasi-state? Two reasons.    One is that, as a state, it can utilize all of the resources, human and otherwise, within the area that it controls in the pursuit of its objectives. The best example of this is the tens of millions of dollars a month in revenue that ISIS earns from taxing the people that are inside the caliphate. They actually earn more in taxes than they do in oil sales.    And, two, the second reason it is important that it is a state is that it is going to make it more difficult to dislodge them. They have become deeply rooted in the areas that they control. The ISIS threat to regional stability is a threat to the very territorial integrity of the current nation-states there, a threat to inflame the entire region, I think, in sectarian war.    All of this--all of this--in a part of the world that still provides almost a third of the world's oil supply; a region that is home to one of America's closest allies, Israel; and a region that is home to a set of close American allies, the Gulf Arab states, that are a bulwark against Iran's push for hegemony in the region.    Third, as a revolutionary political movement, ISIS is gaining affiliates--this was mentioned in the opening statements--ISIS is gaining affiliates among extremist groups around the world. These groups are signing up for what ISIS desires as its objective: a global caliphate where day-to-day life is governed by extreme religious views. In the mind of ISIS, its global caliphate would extend to the United States of America itself.    When they join ISIS, these affiliates evolve from focusing on local issues, local grievances, to focusing on establishing an extension of the caliphate themselves. They want their own little caliphates. And their targets evolve from local to international ones. This is the story of the bombing of the Russian airliner by an ISIS group in the Egyptian Sinai, only the third airliner brought down by a bomb in the last 25 years. It is remarkable.    ISIS has gained affiliates faster than Al Qaeda ever did. From nothing a year ago, there are now militant groups in nearly 20 countries that have sworn allegiance to ISIS. They have conducted attacks that have already killed Americans, and they carry the potential to, themselves, grab large amounts of territory.    Libya is a place where this could happen in the near term. ISIS controls territory in Libya. They are currently expanding that territory, and foreign fighters are beginning to go to Libya to fight with the ISIS group there. I would not be surprised if we woke up one morning and ISIS in Libya had grabbed a large part of Libyan territory, the same kind of blitzkrieg on a smaller scale that we saw in Iraq.    Degrading and ultimately defeating ISIS will both require removing the leadership from the battlefield and will require the shrinking and the eventual elimination of the safe haven, the elimination of the quasi-state, which is currently the size of Great Britain.    The safe haven, the state, is a key part of the ISIS narrative that it is winning. As long as they have it--right?--they have a narrative that they are winning. This narrative is absolutely critical to them. It is absolutely critical to radicalizing homegrown extremists here and absolutely critical to creating affiliates among other militant groups around the world.    The safe haven provides security for ISIS to plot and to train. There are two things that are necessary for a successful attack on the homeland: a desire to do so and the capability to do it. And the safe haven allows for the building of that capability.    And the safe haven provides a place for foreign fighters to gather. No safe haven, no place to gather. Nearly 30,000 individuals from over 100 countries have traveled to Syria and Iraq to fight. Some are homesteading there to help create the caliphate. Others will die on the battlefield. But still others will return home, carrying with them the potential to conduct attacks. This has already happened in Europe, as you know. This creates the potential for attacks that cause more casualties because the individuals who return home will have battlefield experience.    Removing the leadership is easier than eliminating the safe haven. The former requires good intelligence and the military assets to turn that intelligence into action. The latter requires complex military operations in both Iraq and Syria, and it requires a political solution in Damascus to the problem of Bashar al-Assad and a political solution in Iraq to the problem of the disenfranchisement of the Sunnis there.    Mr. Chairman, let me close with this. Early last month, during a debate in the British Commons over whether Parliament should authorize British air strikes against ISIS in Syria, the Labour Party's shadow minister for foreign affairs, Hilary Benn, gave a remarkable speech. Some of his colleagues called it one of the greatest speeches in the history of the British Commons.    Benn, breaking with his own party leader and supporting British air strikes in Syria, said, and I quote, ``We are here faced by fascists, not just their calculated brutality but their belief that they are superior to every single one of us in this chamber tonight and all of the people that we represent. They hold us in contempt. They hold our values in contempt. They hold our belief in tolerance and decency in contempt. They hold our very democracy in contempt.''    Benn went on, and I quote, ``What we know about fascists is that they need to be defeated. It is why this entire house stood up against Hitler and Mussolini. We must now confront this evil.''    Mr. Chairman, I associate myself with Hilary Benn's remarks. That is the picture as I see it as a former intelligence officer who spent years watching Al Qaeda and other terrorist groups. I look forward to your questions.    [The prepared statement of Mr. Morell can be found in the Appendix on page 51.]    The Chairman. Thank you.    Dr. Vickers.</t>
   </si>
   <si>
+    <t>Vickers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Vickers. Chairman Thornberry, Congresswoman Sanchez, distinguished members of the committee, good morning. It is a privilege and pleasure to be with the House Armed Services Committee to provide an outside view on U.S. strategy for Iraq, Syria, and the global jihadist threat.    My former colleague and dear friend, Michael Morell, has described the threats that ISIS, or ISIL, poses. The ISIS threat is nested in several other conflicts that are raging across the Middle East--civil war and sectarian conflict, the global jihad, and then proxy war between Saudi Arabia and its allies and Iran and its allies.    In my opening statement this morning, I would like to offer a few thoughts on how I believe U.S. strategy needs to be intensified and accelerated to deal with these challenges.    The aims of U.S. strategy in the Middle East should be threefold: one, to prevent a major attack on the U.S. homeland and defeat the global jihadist threat; two, to reassure our allies and partners and contain Iran; and, three, to restore a favorable balance of power and greater stability across the Middle East.    I will discuss, in turn, what I believe are the needed adjustments to our strategy in Syria and Iraq against the global jihadists and against Iran, beginning with Syria.    Syria is the center of gravity for Middle Eastern conflict. It is where the battle for the future of the Middle East is largely being waged. A coalition victory in Syria would roll back Iranian power and deal a significant blow to the global jihadist movement.    I believe we need to adjust our strategy in Syria in two principal ways.    First, U.S. strategy has treated Syria as a secondary theater of war in the Iraq-Syria war. In my judgment, we need to shift to a Syria-first strategy and reinvigorate our efforts to remove Assad from power.    Second, we need to significantly intensify our operations. Strike sorties and the weight of strikes need to be significantly increased, as does coalition support, both quantitative and qualitative, for the moderate Syrian opposition. It is not too late to decisively support the opposition. We did not develop a war-winning strategy, for example, until the sixth year of our covert war against the Soviet occupation of Afghanistan in President Reagan's second term.    Let me now briefly turn to Iraq and make four points.    First, as the retaking of Ramadi shows, a more intense application of airpower and more aggressive use of U.S. combat advisers is also a good strategy in Iraq.    Second, the key to a Sunni tribal uprising against ISIL or ISIS is decisive U.S. engagement. The key to sustaining that uprising is the devolution of political power in Iraq across sectarian lines.    Third, we are in a competition with Iran for influence in Iraq. How sectarian identity, politics, and a post-war settlement will shape the future of Iraq and Syria remains to be determined, but our competition for influence with Iran is one we should seek to win.    And then, fourth, more broadly to both Iraq and Syria, raids by special operations forces will contribute an important line of effort to our strategy, but to be effective the tempo of operations needs to dramatically increase. For this to happen, the Iraqi Government must approve an increase in the number of U.S. special operations personnel on its territory.    Now turning to the global jihad, global jihad has metastasized, and time is not on our side, as Michael mentioned. Global jihadists cannot be contained. They must be defeated and continually disrupted while they are in the process of being defeated. Sanctuaries must be denied.    There are three points I would like to make.    First, disrupting and defeating the global jihadists in Syria and Iraq and beyond will require roughly the same ways--precision air strikes exploited by indigenous ground forces led by U.S. advisers--and sufficient means. The global jihadists will not be defeated until the ungoverned space in which they operate is eliminated, their ideology is discredited, and stability is returned to the Middle East. This will require a significant long-term investment in capacity-building of indigenous forces, irregular as well as regular, and sustained U.S. engagement.    Second, the Predator has been our most effective weapon in our campaign against the global jihadists, and the size of the Predator fleet will remain a critical limiting factor in the conduct of our campaigns.    Third, intelligence is our first line of defense, and, accordingly, investments in this area should have top priority.    I would like to conclude by saying a few words about U.S. strategy for Iran and the need to reassure our allies. Iran remains on the offensive in its quest for regional hegemony, and our Gulf Arab allies feel increasingly under siege as they confront a multi-front war with Sunni radicals and Iran and are increasingly estranged from us. Further estrangement would pose a serious challenge to our campaign against the global jihadists and will result in our allies becoming more vulnerable to Iranian and radical Islamic aggression. Reassuring our Gulf Arab allies, strengthening our fraying Arab-Turkish-Kurdish coalition, and containing Iranian expansion are thus critical to our broader efforts in the Middle East.    Thank you for the opportunity to appear before you today. I look forward to your questions.    [The prepared statement of Mr. Vickers can be found in the Appendix on page 59.]    The Chairman. Thank you.    Ambassador Ford.    Ambassador Ford. Mr. Chairman, thank you very much for the invitation to address you and the honorable members of the committee today. It gave me an excuse to come down from the cold winter up in northern New England.    I would like to in my remarks speak, above all, about the politics that is underway in Iraq and in Syria. I am going to avoid the strict military discussion because, to me, the Islamic State is more than the sum of its fighters. It is actually, as Mike Morell was saying, it is a quasi-state. But it builds support, it recruits, it replaces fighters who are killed, it even trains little children.    And so, confronting something like that, we need to think about what is a sustainable solution over the long term. And I am going to therefore talk about resources, and I am going to talk about the politics of national reconciliation.    First, Iraq. I visited Iraq a couple of months ago. It was my first time there on the ground in 5 years. I worked in Iraq for 5 years with the American Embassy and before that with the Coalition Provisional Authority.    My sense is that in Iraq on the military side there is progress, but there are two big challenges.    First, on the resource side, both the Iraqi Government in Baghdad and the Kurdish regional government in Irbil, both are heavily dependent on oil and oil sales. And low oil prices are really crunching their ability to mobilize resources in the fight against the Islamic State.    It was very noticeable to me that the Kurdish leadership, whom I have known since 2004, was genuinely concerned about their budget abilities to sustain the fight against Islamic State. Some of their Peshmerga fighters had not been paid for 3 months. But even in Baghdad, the authorities were concerned about the resources.    Second issue on Iraq: the politics of national reconciliation. Mike Vickers just mentioned the importance of devolution and decentralization. I certainly agree with that, and I am hopeful on that, because the Sunni Arab leaders, again, whom I have known since 2004, have really come around 180 degrees. They used to be in favor of a tight, strong central government, and now they are arguing for devolution of power.    That is what the Shia and the Kurds always wanted 10 years ago. For the first time, I have actually seen the Sunnis, the Shia, and the Kurds in Iraq all talking about, sort of, the same system of government. That is new, and that is hopeful.    But, at the same time, as events in Diyala, northeast of Baghdad, yesterday showed, there is serious sectarian tension. The Islamic State yesterday exploded several car bombs in the weary city of Baqubah, and there was immediately concern among the local Sunni Arab population that Shia irregular, Shia militia, would retaliate. There was actually a fear that they would attack Sunni Arab mosques.    In order to mobilize Sunni Arabs to contain the Islamic State, there must be efforts at national reconciliation. And this is important because we don't want the Islamic State to be put down militarily and then revive, as happened between 2011 and 2013. I really don't want to see an Islamic State version 2.0.    It is important for the Americans, therefore, to maintain pressure on the Shia militia problem in Iraq. There are Iraqis, such as Prime Minister Abadi, Ayatollah Sistani, a superb religious leader in the Shia community, people like, on the Sunni side, Speaker Jabouri, who are all working for national reconciliation.    And so, in Iraq, we need to help mobilize resources for both the central authorities in Iraq, Baghdad, for the Kurdish regional government in Irbil, and we have to be engaged on the national reconciliation, working with the gentlemen I pointed out.    On the Syrian side, Mr. Chairman, I am much less upbeat, much less optimistic. There has been some progress on the ground in northeastern Syria, but that has been led by Syrian Kurds, who have a separate political agenda. And their political agenda is, first, autonomy, and second, fight the Islamic State. Make sure we all understand that: first, autonomy; second, fight the Islamic State.    Because their first priority is autonomy, in that heterogeneous area of northern Syria, these Syrian Kurds have already stirred substantial resentment among local Arabs. I would note that Human Rights Watch and Amnesty International have both issued reports accusing the Syrian Kurdish militia, the ones we are helping--they have accused them of ethnic cleansing and war crimes against the local Arab communities. That does not help national reconciliation. That does not help build local Sunni indigenous forces to contain the Islamic State. We don't need to help the Islamic State recruit.    As Michael Vickers just noted, the only way really to generate more indigenous forces is to help the Syrian opposition and to see the removal of Bashar al-Assad at some point and the creation of a new national unity government. The sooner that can be done in Syria, the better. Only a new national unity government in Syria is going to be able to mobilize enough Syrians to fight and destroy the Islamic State.    In both countries, in both Iraq and Syria, as territory is cleared of the Islamic State, local authorities who are trying to keep the electricity going, trying to keep hospitals operating, trying to keep the water going, are going to need help. The Islamic State operated these things. As Mike Morell just said, it acts as a state. When it is gone, services must be contained.    That will be a job for the U.S. State Department, its people in Turkey and in Jordan, and for the U.S. Agency for International Development. They will need resources to do that, and they are going to have to be able to move around despite the security risks.    Finally, if I may, one last word about North Africa. I served in Algeria as Ambassador, and I was also in Algeria in the mid-nineties during a horrible civil war there, where the Algerian Government had to confront a very nasty sort of pre-Al Qaeda insurgency.    I am watching what is happening in Libya with concern. Even if the Islamic State, which is capturing oil facilities, even if it can't sell oil the way the Islamic State affiliates in Iraq and Syria have done, they may be able to use the oil assets they have locally to generate revenues. They are an administration. They have an increasing ability to project military power out of their base at Sirte, and they have a safe haven space to organize, plan, and recruit. Just as the attack in Paris was organized in Syria, so they have space in Libya to do the same kind of thing.    It will be important, therefore, Mr. Chairman, to help a new Libyan Government and to help it control territory. And we will need to be ready to do that.    Thank you very much again for the invitation to address the committee, and I look forward to your questions.    [The prepared statement of Mr. Ford can be found in the Appendix on page 67.]    The Chairman. Thank you all. Much to think about and much to follow up on.    All committee members received notice that Mr. Smith and I agreed for the purpose of this hearing that, after the chairman and ranking member's questions, that members would be recognized in reverse order of seniority if you were here at the time of the gavel. Then we will proceed according to when you entered the room, as we normally do.    To get that started, I am going to yield my 5 minutes to the gentleman from New Jersey, Mr. MacArthur.</t>
   </si>
   <si>
     <t>412643</t>
   </si>
   <si>
+    <t>MacArthur</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chairman.    And I thank all three of you for being here. It was very helpful, listening to you.    Mr. Morell, you painted a bleak and, I think, compelling picture of why ISIS poses a real threat, a strategic threat and a lethal threat, to the United States.    And if I heard you correctly, you mentioned three things: One, they are capable of completing indirect and direct attacks against us and our interests, and if we don't stop them, they will succeed. Two, they are really a state in every sense that matters. And I would add on that that I think it might serve us better if we recognize that. We call them a quasi-state, but they really are a repressive or an illegitimate state but they are a state, and they act as one. And then, thirdly, you said they have a growing network that will spread their influence.    It seems that the bottom of all of that is their control of land and people and resources. And so I wanted to ask you if you believe that we are doing everything necessary to get them out of that territory. And if not, briefly, what would you suggest that we add to what we are doing?</t>
   </si>
   <si>
@@ -100,6 +121,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you, gentlemen, for your service and your testimony today.    In my time in the military, one of the things that was most concerning as far as threat was the combination of a terrorist organization with weapons of mass destruction [WMD].    I serve on Homeland Security. I am the chairwoman of the Subcommittee on Emergency Preparedness, Response, and Communication. We have done some hearings on the threat of chemical and biological terrorism. And if you look at what ISIS has said, you know, they have stated in open source that they want to use these types of weapons and export their terror on us. Obviously, that could potentially be a game changer, not just small-scale physical attacks, but then actually using chemical, biological, radiological, or nuclear capabilities.    And what we have seen with ISIS, as you know, is that they are not just trying to acquire them--and there are reports they have used them on the battlefield--but they try and recruit individuals with the expertise so that they can create those capabilities themselves, not from scratch but just by importing those with the experience.    So I was wondering if you could comment, Mr. Morell, on the WMD threat with ISIS and your concerns about that and what to do about that.</t>
   </si>
   <si>
@@ -118,6 +145,12 @@
     <t>412632</t>
   </si>
   <si>
+    <t>Moulton</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    Gentlemen, thank you very much for your long years of service. I regret that you still have so many opportunities for your service continuing now.    I feel somewhat the same way. I had a much shorter period of service in the Marines, but when I was a part of the surge in Iraq, I very much felt like I was a part of finishing the job. We had messed it up for years, we got it right, and then I went home. And now I am back here watching us have to return to Iraq just 5 years after we left.    And so, while we can debate--and there is much to discuss--about the military strategy to defeat ISIS in the short term, the focus of my questions today is about how we ensure we don't find ourselves continually going back and having to apply military power against ISIS or the next ISIS successor in the long term.    And we have heard many people testify before this committee about the importance of a long-term political strategy. General Petraeus joined us last week and emphasized that. General Dunford, as Representative McSally pointed out, talked about the importance of State Department coordination and how it hasn't been happening for a long time.    So, to begin, I just wanted to see if we are on the same page with a few high-level points.    Is there any one of you who disagrees with, from the Iraq perspective, the need to empower the central Iraqi Government, that that is the best strategy we have on the table right now for a long-term political solution in Iraq?    Ambassador Ford. I think the Iraq Central Government Prime Minister Abadi is someone who believes in national reconciliation, and I think he has a political vision. But I worry when you say ``empower,'' Congressman, because I think so much of the sustainable solution--you were in Anbar--so much of the sustainable solution will not come just from Baghdad but will come from local Sunni communities who feel that they have a stake----</t>
   </si>
   <si>
@@ -127,6 +160,12 @@
     <t>412642</t>
   </si>
   <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ford [continuing]. In Iraq.</t>
   </si>
   <si>
@@ -169,6 +208,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman.    And thank you, gentlemen, for your thoughtful testimony.    Earlier on in this Congress, last March, we had a hearing with Ms. Wormuth, the Under Secretary of Defense for Policy, and I asked her a question related to what is the administration's policy toward Syria. And it was quite clear in her testimony that there was no coherent strategy toward Syria, and I think that is clearly still the case today.    I agree with your assessment that we must have a Syria-first approach to much of the regional instability in the Middle East, but one significant player that has not been brought up today is the role of Russia.    I would love to get your feedback on the fact that the vacuum that the United States has left has allowed Russia to fill that vacuum, propping up the Assad regime, and how that will play into the geopolitics of phasing Assad out.</t>
   </si>
   <si>
@@ -193,6 +238,12 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Chairman.    And, again, I thank you gentlemen for being here.    I would like to build a little bit on where Mr. Moulton was going on this broader strategy. And I think the timeline of this--I had the opportunity to be in Damascus in 2009, and I know Ambassador Ford early on challenged the Assad regime, at great personal risk.    And I thank you for that. You were articulating this clearly.    In 2013, when President Obama made the now-infamous ``red line'' statement, I held periodic town halls or whatever, and on that one hundreds of people showed up. And I had never seen anything like this, the involvement of getting into Syria to take Assad out because what he was doing with chemical weapons was unacceptable. And in that group of people that showed up, all 100 percent of them were opposed to any intervention.    Trust me, I have held them on health care--it does not quite work that way--and other things. It was an amazing thing, that the American public at that point, weary of war, weary of this, not committed to the strategy, didn't know what to say.    And I bring this up because I think where Mr. Moulton was getting at--and, Mr. Morell, you answered it--you are talking decades, and I think you are absolutely right. I think your assessment is correct, and I agree with that. What I think we need to understand here is that there are multiple administrations. Some you will like, some you will dislike.    And our commitment of that overarching strategy of smart power, what are the things we can put in place that can start to ensure that that transition is more coherent and more stable? Because I worry about that, because if you wait around here long enough, you will blame somebody else for where this happened.    My concern is that we get the strategy in place, and if it is 25 years, that needs to be clearly articulated to the American public with a strategy that they can get behind. Because if hundreds of people show up in a small grocery store in Minnesota and all say no, it is very difficult to make this work.    So I would be interested to hear your thoughts on implementation of smart power and broader thinking, how do the Chinese factor into this, some of the things that we should be thinking about. Whoever wants to take that one.</t>
   </si>
   <si>
@@ -214,6 +265,12 @@
     <t>412640</t>
   </si>
   <si>
+    <t>Zinke</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Zinke. Thank you, Mr. Chairman.    I do agree with your assessment of ISIS, but I also don't think Al Qaeda is out of the game. And my fear is, being number two, Al Qaeda will strike in a larger way because they are in a battle for influence.    But I would like to turn the attention to Iran. Since Congress failed to stop the President's Iranian deal, we have watched Iran launch two ICBMs [intercontinental ballistic missiles], we have watched them deploy missile strikes in Camp Liberty, we have watched them embolden and, to a degree, influence the Shia militia.    To your point about reconciliation between the Sunnis and the Shia, as Iranian influence begins to be emboldened, I don't see how a Sunni reconciliation can occur without checking Iran.    And there are reports, and I believe they are valid, as the Shia militia went through its anti-Sunni rallying cries and battle cries. And my fear in Ramadi--although I think that we were wise to put the Iraqi military in charge of that operation rather than the Shia militia--as that territory is gained, if the result is simply the Shia militia and a greater Iranian influence in the Anbar Province, I think that is perilous.    How concerned are you about Iranian influence in Iraq and Syria?</t>
   </si>
   <si>
@@ -235,6 +292,9 @@
     <t xml:space="preserve">    Mr. Zinke. Thank you.    Thank you. I yield back.    The Chairman. Mr. Castro.</t>
   </si>
   <si>
+    <t>Castro</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, Chairman.    And thank you, gentlemen, for your testimony.    As you know, there was a suicide bomber who attacked Istanbul at about 10:15 a.m. Tuesday morning in Turkey. And because of that, I want to ask a few questions related to Turkey.    And the first one is really a preface question. How effective do you believe or have you seen that Turkey has been to stem the unwanted flow of fighters and goods into and out of their country?    Ambassador Ford. Congressman, it was more or less an open border in 2012 and 2013. The Turks have taken a lot of measures to tighten that border. It is very different from what it was 3 years ago, 4 years ago.    That said, that border is still not completely shut. There are lots of little goat paths and donkey trails that date back hundreds of years. Smugglers know them, and the Turks can know them. But it is a manpower-intensive operation, and the Turks need to assign enough manpower to do it.</t>
   </si>
   <si>
@@ -256,6 +316,12 @@
     <t>412601</t>
   </si>
   <si>
+    <t>Byrne</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you, Mr. Chairman.    And thank you, gentlemen, for your patience and your very good insight.    If I had done--and I did do--town hall meetings 2 years ago, the people in my district would have been, at best, ambivalent and probably pretty negative about any idea of further intervention in Syria. But a lot has happened over the last 2 years, and I can tell you from my town hall meetings, that is not what I am hearing anymore. People are worried, because if you watch the course of events, these events have come closer and closer to home. San Bernardino, a lone-wolf attack but nonetheless inspired, if not indirectly directed, by the people of ISIS, have got my constituents' attention.    But I am from Alabama. We believe in winning. We know you can't win unless you have the right coach--Roll Tide--you can't win unless you have the right coach. I am not asking you to comment on the coach. And that coach has got to have a plan. And the plan has to be a plan to win. And you have to train the team to win on that plan.    Now, my constituents come to my town hall meetings and say, where is the plan, the winning plan? This President has not articulated a plan at all, whether it is a winning one or not.    So we are going to be changing coaches, changing Presidents in a year. And, once again, my question is not directed at who that should be. But if you were advising that next President of the United States on what the winning plan is, how we win this war, what would the elements of that plan be?</t>
   </si>
   <si>
@@ -277,6 +343,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I want to thank our witnesses for your service to the country and also for your appearance today, in particular, Mr. Morell and Dr. Vickers. In my 8 years on the Intelligence Committee and also my years here on the Armed Services Committee, I always appreciated your candid testimony before me in both those areas.    I think, clearly, obviously we have extraordinary challenges in our efforts to defeat ISIL, both on the military front and on the political front. And you all have outlined some concrete steps on both, particularly on the military front. The bigger challenge that we see is going to be defeating ISIL on the political front, especially given the fact that there are countless examples throughout the Koran that ISIL uses to justify their actions.    What are the most effective ways for us to delegitimize ISIL, in particular, you know, given the headwinds we are up against when ISIL or Al Qaeda are using the Koran to justify what they are doing?    Now, the Emerging Threats and Capabilities Subcommittee has recently held several hearings and briefings on countering extremist messaging, also authorizing a counter-messaging demo program last year. And on Friday the White House announced a new task force for this very purpose.    So as we work to bolster information operations in our fight to delegitimize ISIL's ideological messaging, what capabilities do we need, and what tactics and techniques and procedures should the military and the new task force employ?</t>
   </si>
   <si>
@@ -298,6 +370,9 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman.    I thank you all for being here today.    You know, as I look at what we are facing and what you have talked about so well today, you know, I believe that the United States needs to lead on this, but we can't lead and do things alone, that we need to develop our coalitions wholeheartedly with our European allies and with our allies in the Middle East. You know, you see what happened in Paris, and then France wants to become more involved. And I think that we need to establish that.    And my concern is that we are not doing enough; we are not doing enough to establish these diplomatic ties with our allies. Possibly, we need to share more information, coordinate better, and certainly could possibly do more as far as trying to disrupt them economically. And then, of course, there is the component of what we are going to do militarily.    And, Ambassador, I appreciate what you just shared with us because that has been one of my concerns all along, is what we are doing. I have seen some of their videos and how they try to recruit, and I am like, are we doing anything to counteract that, to get people that go online, to pay attention to these things, to get another point of view? And I would hope that we would do something more like that to counter how effective they have been in that regard.    But I would like to just to ask each of you, what more do you think we should be doing, militarily and non-military, and maybe even more non-military, as I discussed, as far as diplomacy and trying to hurt them economically?    You know, you mentioned before how much they collect in taxes. I mean, that is pretty incredible. And I don't know that many people realize that. That was kind of a new revelation to me. You know, I thought most of the revenue was coming from oil.    So what are some of the things that we can do, both militarily and non-militarily? And how should we develop our coalitions? Because, to me, this is a global good-versus-evil event that is taking place in this time.    I will start with you, Mr. Morell.</t>
   </si>
   <si>
@@ -328,6 +403,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    And thank you all for bringing your expertise to us today. We appreciate your distinguished service.    I wanted to sort of respond to some of the conversation that we have had. And I think that we all acknowledge and understand one of the first things that we need here, I think, on the committee but also in the country is patience. It is very difficult to push when we know that the timeline is out. I remember one of the Iraqi generals saying something to the effect of, well, we think we might be operational by 2020. And everybody looked at him like, you know, come back another day. And so that is important for us to acknowledge.    And the other thing that you have all mentioned, and I think particularly Ambassador Ford, is reassuring our allies.    So I wanted to ask you, Ambassador Ford, because you highlighted, in talking to Syria, issues of conditionality, particularly as we are working with those who are fighting with the opposition, where is it that we have fallen short in seeking more conditionality moving forward? How could that be done differently?    And, certainly, this is a whole-of-government approach to a large extent, and you have been talking about sustaining the efforts in terms of the State Department. And, at the same time, we know that, whether it is funding or whatever that may be, we often don't engage at the level that we should. Where should those efforts be, specifically, in terms of Syria?    Ambassador Ford. I think, Congresswoman, on two levels.    On a national geostrategic level with countries of the region--Turkey, Saudi Arabia, who are big players in Syria, and Iran. And I assume the Secretary of State is now having some frank conversations with the Iranian Foreign Minister. Of course, the Iranian Foreign Minister doesn't control Iranian policy in Syria. There is another man in the Iranian Government named Qasem Soleimani from the Revolutionary Guard Corps who controls it. So it is awkward, but there needs to be sustained engagement there.    And I think when you talk about conditionality, to me, one of the basic elements is we tell the Turks and the Saudis that we are not interested in helping extremists in the Syrian opposition who will reject a political solution and insist only on military victory. Any assistance we give to any Syrian opposition group should be conditioned on their acceptance of an eventual political deal, not military victory.    Second level for conditionality engagement has to be at a more local level. I mentioned that there are areas that are being liberated, whether it is from the Islamic State or sometimes from the Assad regime. You would need to keep the services going.    And State Department has tried to do this. I have to be honest; my colleagues who are still in government tell me it is becoming more difficult because of security. And I certainly hope, and I know Chris Stevens would hope, that what happened in Benghazi does not prevent colleagues from doing their jobs, going forward and engaging with people locally, in the case of Syria or Iraq, to help national reconciliation and the restoration of capable local governance.</t>
   </si>
   <si>
@@ -349,6 +430,12 @@
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    Gentlemen, thank you for being here.    And I know we have talked a lot about Syria and other parts of the world outside the U.S. I want to get back to the U.S. for a couple of minutes.    Mr. Morell, you said that the FBI has over 800 open investigations in this country?</t>
   </si>
   <si>
@@ -445,6 +532,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you.    Good morning--good afternoon.    Mr. Morell, you spoke about President el-Sisi in Egypt and that great speech that he gave and the need for leaders within Islam to combat and counter this radical extremist ideology that is driving groups like ISIS and Al Qaeda. And you very eloquently drew that line between connecting groups like ISIS and Al Qaeda and how that ideology is exactly the same.    I had a chance to meet with President el-Sisi in Egypt in November. I spent close to 2 hours talking with him and heard from him how he is continuing to meet with imams and gatherings of religious Muslim leaders and continuing this effort but remains frustrated about the cold shoulder that he is getting from the United States and, really, the lack of action on our part about recognizing the need to, as you said, identify and understand your enemy and the ideology that is driving them.    So when we understand and know that ISIS has the same ideology of this radical political Islamism that Al Qaeda has, that al-Nusrah has, and many of these other groups that are fighting in Syria to overthrow Assad, to establish their caliphate, why is it, in your opinion, that the U.S. in Syria is only targeting ISIS and is not, to my knowledge, targeting any of these other variety of Islamic extremist groups who adhere to and who are fighting under and motivated by this exact same radical Islamic ideology?</t>
   </si>
   <si>
@@ -481,6 +574,12 @@
     <t>412275</t>
   </si>
   <si>
+    <t>Fleming</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you.    Gentlemen, I have listened to your testimony, and it is all very interesting and informative.    Let me ask you this: Have all three of you worked within the Obama administration?</t>
   </si>
   <si>
@@ -514,6 +613,9 @@
     <t xml:space="preserve">    Dr. Fleming. Well, I am running out of time, but I would just end by saying that it seems absolutely necessary that we energize and stimulate the Muslim world to see this for what it is and that it is only going to make life difficult for everyone until they get involved and actually begin to counter these terrible philosophies that are really keeping us away from peace around the world.    And I thank you, gentlemen.    And I yield back.    The Chairman. Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Ambassador Ford, I would like you to comment on a relatively recent development, which is the U.N. Security Council outline for a peace process in Syria. And I would like you to do so within the context of everyone's agreed goal of ultimately seeing Assad replaced. We want to make sure that we minimize any threats to the United States and to our allies. We would like to see stability in that region. We want to minimize the loss of human life and suffering. And I think we all, the United States and the world community, would like to see justice served for some truly horrific crimes in that area.    Train and equip hasn't really worked to that end so far. It has been an abysmal failure. Mr. Morell, prior to saying at the end of the day we have to get rid of Assad, or Assad has to go, said we don't have a credible ground force in Syria.    So tell me, Ambassador Ford, your thoughts on the prospects for this process, how aggressively we should commit to it, if you agree that it is the path to take, and what we can do most effectively, militarily, diplomatically, economically, or otherwise, to get to our goals through a more peaceful process.    Ambassador Ford. Thank you, Congressman O'Rourke.    In brief, I don't think the process is going to go anywhere. And I didn't think that a month ago before this Saudi-Iranian latest spat erupted.    There is nothing in the documents that came out of Vienna, where Secretary Kerry was with other foreign ministers, nor is there anything in the Security Council resolution that says that Bashar al-Assad must go. It is just simply not addressed.    Second--by the way, I would just say that, to me, is something the Syrians ought to negotiate. It shouldn't be a precondition, but it ought to be on the table.    Second, right now, there is a lot of goofing around going on about who should represent the Syrian opposition. And the Russians are trying to put their friends on the opposition delegation; the Iranians are trying to put some of their friends; and, frankly, the Turks and the Saudis are trying to put some of their friends. Syrians are not in control of this.    That, to me, spells disaster, especially if the really serious armed opposition guys, who accept a political solution, if those serious armed opposition guys are excluded from the negotiation, I can't imagine they will sustain their support for a political deal.    There has been a lot of talk about getting a cease-fire. You know the pictures of the starving people in Madaya? Madaya had a cease-fire. You can see what a cease-fire looks like. So if you are in one of those areas where there is a cease-fire and then you begin to criticize the regime, you don't want to appear on TV in their propaganda, which is what happened in Madaya; then, suddenly, food gets cut.    So I think, in all of this, it is not to say we shouldn't pursue a political process with this U.N. Security Council resolution, but it only works if there is pressure on all the sides--and I do mean pressure--on all the sides to make a compromise.</t>
   </si>
   <si>
@@ -535,6 +637,12 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Coffman</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    I served in Iraq with the United States Marine Corps 2005-2006 in Al Anbar province as a civil affairs officer. And I recall the problems with that 20 percent population, the Sunnis, who were the ruling elite in the country and were no longer and, for a time, certainly didn't see any path to being equitably treated. Then you have, later on--I think we gave them that path, and then Maliki, I think, pushed them out again and created an opening for ISIS.    And so I think that, in looking at a post-ISIS Iraq, that there needs to be some kind of political accommodation for the Sunnis. And what I remember is the Kurds had gotten a provision within the constitution whereby they could form a semiautonomous region, and they have done so.    Wouldn't that make sense--if we look at the areas that have fallen to ISIS, they are all Sunni Arab areas--wouldn't that make sense, that there be some sort of a push in that direction to show the Sunni Arabs that there is a path, a political accommodation, where they could coexist with a Shia-dominated Baghdad government?    And I wonder if any of you could answer that question.    Ambassador Ford. This is exactly what I was talking to Sunni Arabs when I was in Iraq last October. And, you know, there was a time when they wouldn't have accepted it, but they have changed 180 degrees.</t>
   </si>
   <si>
@@ -565,6 +673,12 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Dr. Vickers, you have used the term ``global jihadist movement'' and thus identified the global jihadist movement as the focus of America's fight against terrorism.    Isn't it a fact that the global jihadist movement is very closely linked to the teachings of Wahhabism? Yes or no?</t>
   </si>
   <si>
@@ -643,6 +757,12 @@
     <t>412612</t>
   </si>
   <si>
+    <t>Gallego</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gallego. Thank you, Mr. Chair.    Like Rep. Coffman, I, too, am a graduate of the University of Al Anbar with the Marines and a graduate degree--I like to boot to that sometimes. From my experience there, just operating out in that area, mostly the, kind of, Haditha, Al Asad, Al Qayyim corridor, I operated a lot with ING [Iraq National Guard], and they were decent infantry soldiers.    Earlier this year, you know, Secretary Carter stated that, while air strikes are effective, we are going to need a good, reliable Iraqi ground force to be able to take back a lot of this territory from ISIL. In your estimation--it doesn't matter which one of you all three want to answer this--are we seeing an effective Iraqi force on the ground right now?    There are some conflicting reports I have read about Ramadi, how there was an overreliance on air strikes and, I think, the special forces of that counterterrorism. And what does this mean in the larger relations of us being able to push them out of Mosul and other parts of Al Anbar too?</t>
   </si>
   <si>
@@ -671,6 +791,12 @@
   </si>
   <si>
     <t>412579</t>
+  </si>
+  <si>
+    <t>Veasey</t>
+  </si>
+  <si>
+    <t>Marc</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Veasey. Thank you, Mr. Chairman.    I wanted to ask you a question about ground coalitions or Arab allies coming together to help defeat ISIL, particularly in Syria.    You know, last week, we heard from General Petraeus, and he basically implied that the U.S. needs to take more of a support role and help them to defeat ISIL. And then Secretary James Baker, also a Texan, he has said the fact that the Arab allies needing to come together to create a coalition to build a ground force.    If you were going to build a ground force of--an Arab coalition ground force, particularly with Sunni soldiers that would go into Syria, to be able to go door to door and tell people in these towns and in these cities and communities that ISIL is basically an insult and gives Islam a bad name all around the world, what would that ground force look like, with the U.S. obviously only providing air support?</t>
@@ -1052,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,7 +1186,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,4829 +1208,5665 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
       <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
       <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
       <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
       <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G42" t="s">
+        <v>74</v>
+      </c>
       <c r="H42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G44" t="s">
+        <v>74</v>
+      </c>
       <c r="H44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
       <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G48" t="s">
+        <v>83</v>
+      </c>
       <c r="H48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
       <c r="H50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G52" t="s">
+        <v>83</v>
+      </c>
       <c r="H52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G53" t="s">
+        <v>83</v>
+      </c>
       <c r="H53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>83</v>
+      </c>
       <c r="H54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G61" t="s">
+        <v>100</v>
+      </c>
       <c r="H61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G63" t="s">
+        <v>100</v>
+      </c>
       <c r="H63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G65" t="s">
+        <v>100</v>
+      </c>
       <c r="H65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G66" t="s">
+        <v>100</v>
+      </c>
       <c r="H66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G67" t="s">
+        <v>109</v>
+      </c>
       <c r="H67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G70" t="s">
+        <v>109</v>
+      </c>
       <c r="H70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G71" t="s">
+        <v>109</v>
+      </c>
       <c r="H71" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G72" t="s">
+        <v>109</v>
+      </c>
       <c r="H72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>93</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G73" t="s">
+        <v>118</v>
+      </c>
       <c r="H73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G75" t="s">
+        <v>118</v>
+      </c>
       <c r="H75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>93</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G77" t="s">
+        <v>118</v>
+      </c>
       <c r="H77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>93</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G79" t="s">
+        <v>118</v>
+      </c>
       <c r="H79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G80" t="s">
+        <v>118</v>
+      </c>
       <c r="H80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G81" t="s">
+        <v>118</v>
+      </c>
       <c r="H81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G82" t="s">
+        <v>129</v>
+      </c>
       <c r="H82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G83" t="s">
+        <v>129</v>
+      </c>
       <c r="H83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I83" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G85" t="s">
+        <v>129</v>
+      </c>
       <c r="H85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G87" t="s">
+        <v>129</v>
+      </c>
       <c r="H87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I87" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>110</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G88" t="s">
+        <v>138</v>
+      </c>
       <c r="H88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G90" t="s">
+        <v>138</v>
+      </c>
       <c r="H90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>110</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G92" t="s">
+        <v>138</v>
+      </c>
       <c r="H92" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>110</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G94" t="s">
+        <v>138</v>
+      </c>
       <c r="H94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I94" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>110</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G96" t="s">
+        <v>138</v>
+      </c>
       <c r="H96" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>110</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G99" t="s">
+        <v>138</v>
+      </c>
       <c r="H99" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I99" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>110</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G101" t="s">
+        <v>138</v>
+      </c>
       <c r="H101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I101" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>110</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G104" t="s">
+        <v>138</v>
+      </c>
       <c r="H104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>110</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G106" t="s">
+        <v>138</v>
+      </c>
       <c r="H106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I106" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>110</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G108" t="s">
+        <v>138</v>
+      </c>
       <c r="H108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>110</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G110" t="s">
+        <v>138</v>
+      </c>
       <c r="H110" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>110</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G112" t="s">
+        <v>138</v>
+      </c>
       <c r="H112" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>110</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G113" t="s">
+        <v>138</v>
+      </c>
       <c r="H113" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I113" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>110</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G114" t="s">
+        <v>138</v>
+      </c>
       <c r="H114" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>110</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G115" t="s">
+        <v>138</v>
+      </c>
       <c r="H115" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I115" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>110</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G116" t="s">
+        <v>138</v>
+      </c>
       <c r="H116" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>110</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G118" t="s">
+        <v>138</v>
+      </c>
       <c r="H118" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>142</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G120" t="s">
+        <v>172</v>
+      </c>
       <c r="H120" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I120" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>142</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G122" t="s">
+        <v>172</v>
+      </c>
       <c r="H122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>142</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G124" t="s">
+        <v>172</v>
+      </c>
       <c r="H124" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>142</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G126" t="s">
+        <v>172</v>
+      </c>
       <c r="H126" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I126" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>142</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G128" t="s">
+        <v>172</v>
+      </c>
       <c r="H128" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I128" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>142</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G130" t="s">
+        <v>172</v>
+      </c>
       <c r="H130" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I130" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>154</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G131" t="s">
+        <v>186</v>
+      </c>
       <c r="H131" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I131" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>154</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G133" t="s">
+        <v>186</v>
+      </c>
       <c r="H133" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I133" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>154</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G135" t="s">
+        <v>186</v>
+      </c>
       <c r="H135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I135" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>154</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G137" t="s">
+        <v>186</v>
+      </c>
       <c r="H137" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I137" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G139" t="s">
+        <v>186</v>
+      </c>
       <c r="H139" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I139" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>154</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G140" t="s">
+        <v>186</v>
+      </c>
       <c r="H140" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I140" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>154</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G141" t="s">
+        <v>186</v>
+      </c>
       <c r="H141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I141" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>199</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>199</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>199</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>199</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>199</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
+        <v>199</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>172</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G148" t="s">
+        <v>207</v>
+      </c>
       <c r="H148" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I148" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>172</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G149" t="s">
+        <v>207</v>
+      </c>
       <c r="H149" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I149" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>172</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G150" t="s">
+        <v>207</v>
+      </c>
       <c r="H150" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I150" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>172</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G151" t="s">
+        <v>207</v>
+      </c>
       <c r="H151" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I151" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>172</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G153" t="s">
+        <v>207</v>
+      </c>
       <c r="H153" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I153" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>172</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G155" t="s">
+        <v>207</v>
+      </c>
       <c r="H155" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I155" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>172</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G156" t="s">
+        <v>207</v>
+      </c>
       <c r="H156" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I156" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>182</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G157" t="s">
+        <v>219</v>
+      </c>
       <c r="H157" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I157" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>19</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>182</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G159" t="s">
+        <v>219</v>
+      </c>
       <c r="H159" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I159" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>19</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>182</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G161" t="s">
+        <v>219</v>
+      </c>
       <c r="H161" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I161" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>19</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>182</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G163" t="s">
+        <v>219</v>
+      </c>
       <c r="H163" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I163" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G164" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>182</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G165" t="s">
+        <v>219</v>
+      </c>
       <c r="H165" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I165" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G166" t="s">
+        <v>19</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>182</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G167" t="s">
+        <v>219</v>
+      </c>
       <c r="H167" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I167" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G168" t="s">
+        <v>19</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>182</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G169" t="s">
+        <v>219</v>
+      </c>
       <c r="H169" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I169" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>182</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G170" t="s">
+        <v>219</v>
+      </c>
       <c r="H170" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I170" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>182</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G171" t="s">
+        <v>219</v>
+      </c>
       <c r="H171" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I171" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>182</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G172" t="s">
+        <v>219</v>
+      </c>
       <c r="H172" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I172" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>182</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G173" t="s">
+        <v>219</v>
+      </c>
       <c r="H173" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I173" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>182</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G174" t="s">
+        <v>219</v>
+      </c>
       <c r="H174" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I174" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>182</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G175" t="s">
+        <v>219</v>
+      </c>
       <c r="H175" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I175" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>182</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G176" t="s">
+        <v>219</v>
+      </c>
       <c r="H176" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I176" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>182</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G177" t="s">
+        <v>219</v>
+      </c>
       <c r="H177" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I177" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>182</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G178" t="s">
+        <v>219</v>
+      </c>
       <c r="H178" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I178" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G179" t="s">
+        <v>17</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>182</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G180" t="s">
+        <v>219</v>
+      </c>
       <c r="H180" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I180" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>13</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G181" t="s">
+        <v>19</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>182</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G182" t="s">
+        <v>219</v>
+      </c>
       <c r="H182" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I182" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>208</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G183" t="s">
+        <v>247</v>
+      </c>
       <c r="H183" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I183" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G184" t="s">
+        <v>19</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>208</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G185" t="s">
+        <v>247</v>
+      </c>
       <c r="H185" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I185" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G186" t="s">
+        <v>19</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>208</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G187" t="s">
+        <v>247</v>
+      </c>
       <c r="H187" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I187" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G188" t="s">
+        <v>19</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>208</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G189" t="s">
+        <v>247</v>
+      </c>
       <c r="H189" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I189" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G190" t="s">
+        <v>19</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>208</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G191" t="s">
+        <v>247</v>
+      </c>
       <c r="H191" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I191" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>218</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>258</v>
+      </c>
+      <c r="G192" t="s">
+        <v>259</v>
+      </c>
       <c r="H192" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>260</v>
+      </c>
+      <c r="I192" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G193" t="s">
+        <v>19</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>218</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>258</v>
+      </c>
+      <c r="G194" t="s">
+        <v>259</v>
+      </c>
       <c r="H194" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>260</v>
+      </c>
+      <c r="I194" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>13</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G195" t="s">
+        <v>17</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>218</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>258</v>
+      </c>
+      <c r="G196" t="s">
+        <v>259</v>
+      </c>
       <c r="H196" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>260</v>
+      </c>
+      <c r="I196" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>13</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G197" t="s">
+        <v>199</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>13</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G198" t="s">
+        <v>199</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G199" t="s">
+        <v>19</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>13</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G200" t="s">
+        <v>199</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>13</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G201" t="s">
+        <v>17</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>229</v>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s">
+        <v>199</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98887.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98887.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400356</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Sanchez</t>
@@ -1178,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1186,7 +1192,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,5662 +1217,6096 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>92</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>92</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G61" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G63" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G65" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G66" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G67" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G70" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G71" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G72" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I72" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G73" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="I73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G75" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="I75" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G77" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="I77" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G79" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="I79" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G80" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="I80" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G81" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="I81" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G82" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I82" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G83" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I83" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G85" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I85" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J85" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G87" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G88" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I88" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G90" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G92" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I92" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J92" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G94" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I94" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G96" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I96" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G99" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I99" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G101" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I101" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G104" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I104" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J104" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>17</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G106" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J106" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I108" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>17</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G110" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I110" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>17</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G112" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G113" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I113" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G114" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I114" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G115" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I115" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G116" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I116" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G118" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I118" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G120" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I120" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J120" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G122" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I122" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J122" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s">
-        <v>17</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G124" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I124" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J124" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s">
-        <v>17</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G126" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I126" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J126" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s">
-        <v>17</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G128" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I128" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J128" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>21</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G130" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I130" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J130" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G131" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I131" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J131" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s">
-        <v>19</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>21</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G133" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I133" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J133" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G135" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I135" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J135" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s">
-        <v>19</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>21</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G137" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I137" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J137" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s">
-        <v>17</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G139" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I139" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J139" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G140" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I140" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J140" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G141" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I141" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J141" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s">
-        <v>199</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>201</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s">
-        <v>199</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s">
-        <v>199</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>201</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s">
-        <v>199</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>201</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s">
-        <v>199</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>201</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s">
-        <v>199</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>201</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G148" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I148" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J148" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G149" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I149" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J149" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G150" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I150" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J150" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G151" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I151" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J151" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s">
-        <v>19</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>21</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G153" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I153" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J153" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s">
-        <v>17</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G155" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I155" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J155" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G156" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I156" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J156" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G157" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I157" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J157" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s">
-        <v>19</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>21</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G159" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I159" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J159" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s">
-        <v>19</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>21</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G161" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I161" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J161" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s">
-        <v>19</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>21</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G163" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I163" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J163" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s">
-        <v>19</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>21</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G165" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I165" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J165" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s">
-        <v>19</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>21</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G167" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I167" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J167" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>21</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G169" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I169" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J169" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G170" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I170" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J170" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G171" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I171" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J171" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G172" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I172" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G173" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I173" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G174" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I174" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J174" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G175" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I175" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J175" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G176" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I176" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J176" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G177" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I177" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J177" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G178" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I178" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J178" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" t="s">
-        <v>17</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G180" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I180" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J180" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s">
-        <v>19</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>21</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G182" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I182" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J182" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G183" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I183" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J183" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" t="s">
-        <v>19</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>21</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G185" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I185" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J185" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
-      </c>
-      <c r="G186" t="s">
-        <v>19</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>21</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G187" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I187" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J187" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
-      </c>
-      <c r="G188" t="s">
-        <v>19</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>21</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G189" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I189" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J189" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
-      </c>
-      <c r="G190" t="s">
-        <v>19</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>21</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G191" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I191" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J191" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G192" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I192" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>262</v>
+      </c>
+      <c r="J192" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
-      </c>
-      <c r="G193" t="s">
-        <v>19</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>21</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G194" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I194" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>262</v>
+      </c>
+      <c r="J194" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
-      </c>
-      <c r="G195" t="s">
-        <v>17</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>19</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G196" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I196" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>262</v>
+      </c>
+      <c r="J196" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>16</v>
-      </c>
-      <c r="G197" t="s">
-        <v>199</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>201</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" t="s">
-        <v>199</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>201</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>16</v>
-      </c>
-      <c r="G199" t="s">
-        <v>19</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>21</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>16</v>
-      </c>
-      <c r="G200" t="s">
-        <v>199</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>201</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>16</v>
-      </c>
-      <c r="G201" t="s">
-        <v>17</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>19</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>16</v>
-      </c>
-      <c r="G202" t="s">
-        <v>199</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>271</v>
+        <v>18</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>201</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
